--- a/bbc_links.xlsx
+++ b/bbc_links.xlsx
@@ -9,6 +9,8 @@
   <sheets>
     <sheet name="links" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="links_text" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="links1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="links_text1" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2666,4 +2668,2015 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A175"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ref</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>https://www.bbc.com/news/science-environment-60483431</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>https://www.bbc.co.uk/schedules/p00fzl9m</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>https://www.bbc.co.uk/contact</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>/marathi/</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>/news/entertainment-arts-60587299</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>/sport/cricket</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>/news/uk-60431246</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>/news/england/nottingham</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>/tamil/live/global-60613623</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>https://www.bbc.com/culture/article/20220303-nosferatu-the-monster-who-still-terrifies-100-years-on</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>https://www.bbc.com/news/science-environment-60495951</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>https://nav.files.bbci.co.uk/searchbox/5d1e3fc3ab4c3b6e04f4c2342feceb86/css/box.css</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>/news/world-australia-60418525</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>/hindi/live/international-60613082</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>https://www.bbc.com/travel</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>https://www.bbc.co.uk/bbcnewsletter</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>https://www.bbc.com/news/world-europe-60571884</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>/news/politics</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>/ws/languages</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>/news/in_pictures</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>/news/business-60610537</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>/sport/football/60601469</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>/reel/video/p0br366s/life-beyond-death-in-the-driest-place-on-earth</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>/news/science-environment-60596449</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>https://www.bbc.co.uk/usingthebbc/cookies/</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>/bengali/</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>https://www.bbc.co.uk/editorialguidelines/guidance/feeds-and-links</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>/burmese/</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>/news/live/world-europe-60532634</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>http://www.bbc.co.uk/worldserviceradio/</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>#orb-footer</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>/uzbek/</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>https://www.bbc.com/news/technology-60541942</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>https://www.bbc.com/usingthebbc/cookies/how-does-the-bbc-use-cookies-for-advertising/</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>http://www.bbc.com/news/business/</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>https://www.bbc.co.uk/accessibility/</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>https://static.files.bbci.co.uk/fonts/reith/2.512/BBCReithSans_W_Rg.woff2</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>/news/world-europe-60608706</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>/news/uk-politics-60611683</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>https://search.bbc.co.uk/search?scope=all</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>https://www.bbc.com/sport/av/disability-sport/60486263</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>https://www.bbc.com/sport</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>/news/world-africa-60508013</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>/turkce/</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>https://session.bbc.com/session?ptrt=https%3A%2F%2Fwww.bbc.com%2F&amp;context=homepage&amp;userOrigin=HOMEPAGE_GNL</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>http://www.bbc.com/culture</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>/news/in-pictures-60536824</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>/news/business-60613613</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>/news/england/london</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>/news/business-60613855</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>https://www.bbc.co.uk/news/business-60433204</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>https://www.bbc.com/news/science-environment-60525591</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>/news/world/us_and_canada</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>/sport/live/football/60615119</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>/arabic/</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>/news/world/europe</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>/news/entertainment-arts-60603406</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>/sport/disability-sport</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>/reel/video/p0brtrb1/why-pleasure-is-key-to-losing-weight</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>https://www.bbc.com/worklife/article/20220302-how-mindfulness-can-make-you-a-darker-person</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>https://www.bbc.com/worklife</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>/sport/football/european</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>/portuguese/</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>/urdu/live/world-60548690</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>/hindi/</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>/news/world-us-canada-60532632</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>/nepali/</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>http://www.bbc.co.uk/programmes/p00w940j</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>/news/in-pictures-60505277</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>http://www.bbc.com/worklife</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>/pashto/</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>https://www.bbc.com/culture/music</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>//secure-us.imrworldwide.com/</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>https://www.bbc.com/news/business-60569979</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>https://www.bbc.com/future/article/20220302-the-myths-and-reality-of-modern-friendship</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>/marathi/live/international-60610577</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>https://www.bbc.com/news/world-asia-india-60519542</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>#orb-modules</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>https://www.bbc.co.uk/sounds</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>/news/world-europe-60613438</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>/vietnamese/</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>/reel</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>/sport/football</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>/news/uk-england-nottinghamshire-60575504</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>https://www.bbc.com/news/world-us-canada-60607782</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>https://www.bbc.com/future</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>https://www.bbc.co.uk/aboutthebbc</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>/news/health-60555228</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>/news/entertainment_and_arts</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>/news/world</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>//bbc.gscontxt.net/</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>/future/article/20220211-the-animals-that-predict-disasters</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>/news/world-60613863</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>/news/world-asia-india-60606648</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>https://www.bbc.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>https://gn-web-assets.api.bbc.com/bbcdotcom/assets/20220118-142602-f5022401a-4.64.0/style/bbcdotcom-async.css</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>/japanese/</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>/persian/</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>https://www.bbc.co.uk/usingthebbc/privacy/</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>/weather/1275339?day=3</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>/news/uk</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>/weather/1275339?day=1</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>/news/in-pictures-60601185</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>https://www.bbc.com/news/business-45489065</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>https://www.bbc.com/news/business-33712313</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>https://www.bbc.com/sport/disability-sport</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>/news/uk-england-london-60471272</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>https://www.bbcglobalnews.com/</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>/news/business</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>/future/article/20220202-floating-homes-the-benefits-of-living-on-water</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>https://www.bbc.com/reel</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>/sport</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>/news/world/australia</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>https://www.bbc.com/news/business-60523038</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>https://www.bbc.com/news/health-60601750</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>https://www.bbc.com/</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>/sinhala/</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>/azeri/</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>https://www.bbc.com/future/bespoke/follow-the-food/</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>/news/world-asia-india-60599841</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>https://www.bbc.com/news</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>/weather/1275339?day=0</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>/news/world-europe-60611188</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>/tamil/</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>/news/world/latin_america</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>/somali/</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>//www.googletagservices.com/</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>https://www.bbc.com/future/bespoke/follow-the-food/how-your-diet-can-treat-diseases/</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>/news/world-60608699</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>/news/health</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>https://gn-web-assets.api.bbc.com/wwhp/20210923-1449-37491ec2b6e5b4c43bda3673e521e8164a789b87/responsive/css/wwhp.min.css</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>#</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>https://www.bbc.com/culture</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>/news</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>/weather/1275339?day=2</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>https://gn-web-assets.api.bbc.com/wwhp/20210923-1449-37491ec2b6e5b4c43bda3673e521e8164a789b87/responsive/img/apple-touch/apple-touch-180.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>https://static.files.bbci.co.uk/fonts/reith/2.512/BBCReithSans_W_Bd.woff2</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>https://www.bbc.com/worklife/article/20220301-does-solo-polyamory-mean-having-it-all</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>/news/world-us-canada-60607790</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>https://www.bbc.com/news/world-asia-india-60568499</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>/gahuza/</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>https://www.bbc.com/weather</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>/future/article/20220222-the-mystery-of-mexicos-vanishing-stream-oaks</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>/news/world-asia-india-60614274</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>/zhongwen/simp/</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>http://www.bbc.com/future</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>/worldserviceradio</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>https://www.bbc.com/travel/article/20220303-hawaiis-ultimate-form-of-gratitude</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>https://www.bbc.co.uk/guidance</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>/reel/video/p0bsfp1y/the-goddess-who-changed-the-course-of-roman-history</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>https://www.bbc.com/sport/av/disability-sport/60486266</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>/news/science_and_environment</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>/mundo/</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>/indonesia/</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>/news/world-africa-60603226</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>/news/uk-politics-60602512</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>https://static.files.bbci.co.uk/account/id-cta/1.54.21-wp/style/id-cta.css</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>/news/world/africa</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>/kyrgyz/</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>/russian/</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>https://www.bbc.com/news/world-us-canada-60559403</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>/urdu/</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>/news/science-environment-60592587</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>/future/future-planet</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>/afrique/</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>/news/world-latin-america-60477700</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>/swahili/</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>/hausa/</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>/ukrainian/</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>/news/world/asia/india</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>/news/60571253</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>https://www.bbc.co.uk/usingthebbc/terms/</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>https://static.files.bbci.co.uk/orbit/cd2e71211631023c115267d52c7e9dae/css/orb-ltr.min.css</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>/sport/cricket/60508396</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C44"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>url</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>https://www.bbc.com/news/science-environment-60483431</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>['Global warming and land use change to drive more extreme wildfires']</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>['Extreme wildfires are set to become more frequent, increasing by around 50% by the end of this century, according to a new UN report.', "The report finds there's an elevated risk in the Arctic and other regions previously unaffected by fires. ", 'The scientists define extreme fires as extraordinary conflagrations that occur roughly once in a hundred years. ', 'Researchers say that rising temperatures and changes to the way we use land will drive the increase. ', 'The new study calls for a radical reallocation of financial resources from fighting fires to prevention.', 'The scientists from the UN Environment Programme (UNEP) say that large fires that burn for weeks are already becoming hotter and burning longer in many parts of the planet where wildfires have always occurred. ', 'But they are now beginning to flare up in remote northern areas, in drying peatlands and on thawing permafrost. ', 'This latest study says that there will be a global increase in extreme fires of up to 14% by 2030, compared to the number recorded in 2010-2020. The increase could reach 30% by 2050 and 50% by the end of the century. ', '"The analysis was based on the definition of a catastrophic fire being one that would occur once every 100 years, so it\'s a very low frequency fire event," said Dr Andrew Sullivan from the Commonwealth Scientific and Industrial Research Organisation (CSIRO) in Canberra, Australia. ', '"The result was that the potential for that sort of fire would increase by a factor of 1.3 to 1.5 times, based on global analysis of fire frequency."', 'The results were similar in a low or high carbon emissions scenario. ', 'The study defines extreme conflagrations as fires that are extraordinary or unusual - but this definition can differ markedly depending on your location. ', '"If you imagine a peat fire in the Arctic, it\'s spreading at centimetres an hour. It\'s not necessarily a raging inferno, but it\'s unusual and spreading over immense areas because there\'s no one there to do anything about it," said Dr Sullivan.', '"A fire like this in the peatlands is an extreme fire, but it\'s not what you would envisage as being an extreme fire if you lived in California."', 'And even though the study only makes projections on extreme events, the authors believe that lesser incidents of wildfire will also increase as land use changes and populations increase.  This could have significant implications for climate change as the extra burning will increase the amount of carbon emitted into the atmosphere. ', 'But the change in frequency will vary depending on a number of local factors. The world is likely to see more fires in Arctic regions because climate change is having such a major impact in the region.', "However in Africa, where about two thirds of the world's wildfires now occur, there are likely to be fewer fires in the coming decades as a growing population is clearing more forest areas for farmland. ", '"In Africa, the number of fires is decreasing, because of the change in land use and the intensification of agriculture," said Dr Glynis Humphrey from the University of Cape Town.', '"Our percentage of area burned is actually decreasing, and our fires are becoming smaller and smaller, because of the reduction in fuel load."', 'The authors are calling on governments to change their model of spending on large fires. ', 'Right now, the study says that planning and prevention receives less than 1% of funding while firefighting takes over half of the available budget. ', 'Many governments have good intentions in terms of spending more on planning and prevention - but the reality on the ground is different.', '"We need to invest more in fire prevention, in full management, also in allowing fires to fulfil their ecological roles," said Prof Paulo Fernandes, from the Universidade de Trás-os-Montes e Alto Douro in Portugal, one of the report\'s authors.', '"But then, when things get hot, their response will be to deviate from the policy that\'s supposed to be in place. In places like California they talk a lot, but then in terms of action, they put the money always in the same place, in firefighting."', 'Follow Matt on Twitter @mattmcgrathbbc.']</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>https://www.bbc.com/news/entertainment-arts-60587299</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>['Bafta Games Awards: Returnal and It Takes Two lead nominations']</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>["It Takes Two, a co-operative game about a family break-up, and action title Returnal lead the way in the race for this year's Bafta Games Awards.", 'They have each been nominated for eight of the famous golden masks.', 'Bafta has been recognising the cultural impact of games since 2004 and the awards are arguably the most prestigious in the gaming industry. ', 'Ratchet and Clank, Forza Horizon 5, Psychonauts 2 and Deathloop have also been nominated in multiple categories.', 'After two virtual ceremonies during the Covid pandemic, this year will see a return to an in-person event in London on 7 April. ', 'In a sign of the variety that is now on offer in the ever-growing gaming industry, you could not pick two more different titles than It Takes Two and Returnal.', "The former, which picked up the main prize at last year's Game Awards, is a throwback to gaming in the mid-1990s with it's bright cartoon aesthetic and emphasis on local co-operative play.", 'With the dominance of online multiplayer gaming in recent years, the success of this title is an example of how players are calling for more experiences that allow them to connect with people in the same room. Heightened, no doubt, by the pandemic and lockdowns. ', "In the game, Cody and May are planning a divorce and their daughter Rose tries to bring them back together. Players must work with each other to solve a series of engaging puzzles. So successful has it been that the title's developers are working on a movie version.", 'It has been nominated in categories like best game, artistic achievement and the "game beyond entertainment" category.', 'Returnal, on the other hand, is a dark, futuristic, psychological horror experience that involves frantic bursts of action. ', 'The Playstation 5 exclusive makes the most of new console technology and has struck a chord with players for its compelling and challenging gameplay. ', 'It was named game of the year at the Develop: Star Awards and has now been nominated in categories like best game, game design and technical achievement.', 'Alongside Returnal, PlayStation bosses will be happy that two of its other exclusive games are among those with the most nominations.', 'Ratchet and Clank: Rift Apart, a game that is seen by some reviewers as one of the few titles to have made the most of the latest generation of consoles, has seven nominations.', 'Deathloop has five nominations, including best game. It has just missed out on winning big at various other ceremonies and will be a strong contender for the main prize.', 'The Bafta Games Awards love throwing up a surprise result. Last year, ancient Greece-themed action title Hades walked away with the main prize for best game. ', 'The games industry is often seen, in mainstream press outlets, through the prism of its financial impact - worth £7bn to the UK economy. ', "The Bafta Games Awards gives the industry the opportunity to focus on the cultural impact gaming has on people's lives.", 'Most winners will be selected by a panel of judges from the industry, but the public can vote for the EE Game of the Year Award.', 'Chicory: A Colorful Tale, Deathloop, It Takes Two, Metroid Dread, The Forgotten City and Unpacking are the six titles competing for the award.', 'See the full list of Bafta nominees.']</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>https://www.bbc.com/news/uk-60431246</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>['Storm Eunice: Videos show winds toppling trees and ripping roofs']</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Not Available</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>https://www.bbc.com/news/science-environment-60495951</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>["'Dinosaur asteroid' wrought springtime devastation"]</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>["Scientists can't pinpoint the exact year that an asteroid came out of the sky to wipe out the dinosaurs but they're sure now that the huge space rock struck Earth in the Northern Hemisphere springtime. ", 'And they think the seasonal timing may have been a critical factor that influenced which animal groups managed to live through the calamity.', 'Clearly, it made no difference for the dinosaurs, but it might have done for certain mammals, birds and plants. It could have made all the difference. ', 'This was perhaps particularly so for those species living in the Southern Hemisphere, where it would have been autumn or early winter at the time of impact.', '"In the Southern Hemisphere, many organisms would have been in hibernation or sheltering. That could have helped them," says Melanie During from Uppsala University, Sweden.', '"In spring, you expect animals to be tending to their offspring which are very fragile, or perhaps they are still tending to eggs, waiting for them to hatch or be looking for food. That puts them in a vulnerable position."', 'Ms During has just published her analysis of fossil paddlefish and sturgeon at a site called Tanis in North Dakota, US. These investigations suggest very strongly that the fish died in springtime. ', "If you haven't yet heard of Tanis, you're going to - a lot - over the next few years.", "It's the place that records in extraordinary detail not just the day 66 million years ago that a 12km-wide asteroid slammed down on the planet, but the minutes and hours that followed the catastrophic impact.", 'The giant space rock actually struck Earth in what is now the Gulf of Mexico, some 3,000km away from Tanis, but such was the energy imparted in the event, its devastation was felt far and wide. ', 'The North Dakota fossil site holds the remains of fish hurled on to land and buried in sediment by waves of water set in train by unimaginable earth tremors. ', 'The fish have particles stuck in their gills. These are the spherules of molten rock kicked out from the impact to then rain down across the planet.', '"This deposit literally looks like a car crash frozen in place; it looks like the most violent thing I have ever seen preserved in pristine conditions," said Ms During.', 'With colleagues, she examined the atomic make-up of the fishbones and subjected them to X-ray analysis.  ', 'These investigations revealed not just where the paddlefish were in their annual growth cycle but also where they were in terms of seasonal consumption of food (what you eat is reflected in the chemistry of your bones).', '"So there are two independent curves based on independent principles, but they converge both on spring, which means we were able to confidently say that the meteorites came down in spring," explained co-worker Dennis Voeten, also from Uppsala.', "The team's study was published in the journal Nature on Wednesday. ", 'It echoes the work from a separate group who put out their findings in the journal Scientific Reports in December. This gives us plenty of assurance that spring really was the impact season.', 'Prof Phil Manning from the University of Manchester, UK, was part of the December reporting team.', 'He said the global climate was cooling at the time of the impact so ecosystems would have been feeling the pressure of change anyway.', '"It\'s just that when you throw a spanner in the works in the shape of an asteroid smashing into Earth at 60,000mph, it tends to tip the scales and it was the straw certainly that broke the dinosaurs\' back," he told BBC News.', '"But, yes, it was at a sensitive point for the Northern Hemisphere. Spring is when everything is literally springing back into life, and that\'s not the time to put the anchors on everything."', 'The BBC will be screening a TV special about Tanis with Sir David Attenborough. The programme, Dinosaurs: The Final Day, will be aired in the coming weeks. ']</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>https://www.bbc.com/news/world-australia-60418525</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>['The dogs keeping gulls away from seaside diners in Sydney']</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Not Available</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>https://www.bbc.com/news/world-europe-60571884</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>['Ukraine conflict: Dread in Kyiv as huge Russian convoy advances']</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>["There's a biting cold in Ukraine's capital.", "The first day of March swept in with an icy blast of wind and snow; the sixth day of Russia's invasion unfolds with a gnawing sense of foreboding. Satellite images convey, with searing clarity, the pace of Russia's progress towards Kyiv. A serpentine armoured convoy, some 65km (40 miles) long, bristling with tanks and troops, slowly snakes forward. It's only 27km away. ", 'It gives an entirely new, and terrifying, meaning to the expression "the world is watching". Everyone can see these satellite images in shades of black and grey, which have a meaning that\'s all too black and white. But it\'s only Ukrainian forces, soldiers and civilians who can stop its lumbering advance. Western militaries continue to send in weapons and ammunition, and incessant salvos of strong words. On the ground, Ukraine is on its own. ', '"We\'ll burn the convoy," a Ukrainian journalist vows when I meet him in a basement shelter. It\'s this raw resolve, and burning patriotism, which has fired Ukraine\'s unexpectedly strong resistance to the mighty Russian army\'s advance. ', "He's crouched over his computer and smartphone. Everyone is connected to the world above in this new subterranean world below in basements, bomb shelters and bunkers. The air raid sirens now seem to be wailing on a loop.  ", 'At the edge of a hard floor on a thin mat, bespectacled 13-year-old Rustam seems glued to his device, an extension of his lanky teenage frame. Today he\'s watching TikTok videos of Britain\'s Prime Minister Boris Johnson; yesterday he was inspecting videos of Chechen fighters with a fearsome reputation on front lines. "Are they coming here too?" he asks me, barely lifting his eyes from his phone. It takes the obsessive "doomscrolling" of our time to a whole new level; this isn\'t just bad news when you see a Russian convoy heading your way. ', '"We didn\'t sleep last night," his mother Liana confides. "I was on the phone talking to relatives and friends in other cities." A friend who fled to neighbouring Poland calls, crying, that her home was obliterated by a Russian missile. Liana\'s father is still in their home further north, closer to the Russian border, near Chernobyl, now occupied by Russian forces. He managed to call, on a poor phone signal, to tell her a missile had slammed into their vegetable garden, 100m (328ft) from his room. "I told him so many times he should have let me buy him a good phone so he could send us pictures," she laments. ', "Next to her, a bulky cat carrier is empty. Their whopping Maine Coon cat, named Tyson after Britain's champion boxer, hasn't lived up to his name. He mostly hides under a bed above ground. But sometimes he comes down to snuggle with Rustam; it makes us both feel better.  ", 'On the mattress across the floor - all neighbours now - Australian businessman Stephen Rimmer keeps a quiet vigil. "I\'d like to get out as quickly as possible," he says, barely concealing his anxiety. Armed with his Turkish passport, he tried to board a train put on for Turkish citizens. But there was pandemonium at the station.  ', 'All this wasn\'t on his itinerary. He was meant to fly out last Thursday - the day Russia moved in. "I just didn\'t think he would do it," he confesses. Not many people here, or anywhere, thought Russia\'s President Vladimir Putin would go this far.  ', 'Six days on, disbelief has morphed into defiance, and dread. ', "News from the regional centre of Kherson, to the south, now encircled by Russian forces, tell a story of a gathering siege, the medieval tactic deployed to devastating effect in Syria to starve cities into submission; it's a war crime. So is the use of suspected cluster munitions unleashed against a residential area of Kharkiv, Ukraine's second largest city, to the west. ", 'In Kyiv, the attacks get closer too. As night fell on the last day of February, an explosion shook buildings in the city centre for the first time. And the sky was repeatedly lit by surface-to-air weapons fired by Ukrainian forces.  ', "March's icy blast now amplifies the pain of standing in queues at shops, where shelves are emptying fast, and the life in unheated basements, while the world above grows ever colder, and darker.  ", 'Have you been affected by the issues raised in this story? Share your experiences if it is safe to do so. Email haveyoursay@bbc.co.uk.', 'Please include a contact number if you are willing to speak to a BBC journalist. You can also get in touch in the following ways:']</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>https://www.bbc.com/news/business-60610537</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>['World Bank warns Ukraine war will cut global growth']</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>['The president of the World Bank has told the BBC that the war in Ukraine is a catastrophe for the world which will cut global economic growth.', '"The war in Ukraine comes at a bad time for the world because inflation was already rising," said David Malpass. ', 'He stressed his biggest concern is "about the pure human loss of lives" that is occurring. ', 'Thousands of civilians and soldiers are thought to have been killed by the fighting.', 'Mr Malpass said the economic impact of the war stretches beyond Ukraine\'s borders, and the rises in global energy prices in particular "hit the poor the most, as does inflation". ', 'Food prices have also been pushed up by the war, and "are a very real consideration and problem for people in poor countries".', "Mr Malpass points out that both Russia and Ukraine are big food producers. Ukraine is the world's biggest producer of sunflower oil, with Russia number two, according to S&amp;P Global Platts. Between them they account for 60% of global production.", 'The two countries also account for 28.9% of global wheat exports according to JP Morgan. Wheat prices on the Chicago future exchange have been trading at 14-year highs. ', "Russian supplies of these commodities are being restricted because of the widespread sanctions which make it hard for the rest of the world to buy its products. Ukrainian supplies have been stopped because fighting has closed the country's ports.", '"There\'s no way to adjust quickly enough to the loss of supply from Ukraine and from Russia, and so that adds to prices," said Mr Malpass. ', 'He says the same is true of Russian energy supplies, and it is particularly damaging for western Europe, where governments have "neglected other aspects of how to have enough electricity". About 39% of the EU\'s electricity comes from power stations that burn fossil fuels, and Russia is the biggest source of that oil and gas.', 'As the EU looks to accelerate its transition to other energy sources, Vladimir Putin\'s government "may permanently lose some of their markets", said Mr Malpass. Such a loss of income is just one way this war will dent living standards in Russia, so too will the fall in the value of the rouble and the inflation that brings.', "The World Bank has committed $7.9bn to help develop Ukraine's economy since the 2014 revolution. That money has helped the country institute wide-ranging economic reforms including privatisations in the energy and banking sectors, as well as efforts to make its farmland more productive.", "Less than a month before the Russian invasion Ukraine's independent central bank forecast that the $180bn economy would grow 3.4% this year, after the difficulties of the pandemic.", 'However, war means "a catastrophic impact for our economy, for the region overall", according to Alexander Rodnyansky, who is an economic adviser to President Zelensky.', 'He adds: "We\'ve already seen massive destructions of roads and bridges and infrastructure. So that is something that will have to be rebuilt over the years when the war is over. ', '"It\'s hard to put a number on that right now, but we can already see that we\'ve given up percentages and GDP growth just because of what happened already."', 'With hundreds of thousands of Ukrainians fleeing the country or joining the fight against Russia the workforce has shrunk dramatically, which is making it difficult to keep the war time economy going.', '"Production is just collapsing", says Mr Rodnyansky, who says there are disruptions to vital food and energy supplies.', 'Big western companies, such as food manufacturer Nestle and brewer Carlsberg, have big operations in Ukraine that have been disrupted by the war. ', 'A surge of foreign investment in recent years helped to reshape the Ukrainian economy amid a corruption crackdown that was part of a deal for development support from the International Monetary Fund and World Bank.', 'Mr Rodnyansky said that shift "absolutely reflects the people\'s desire in Ukraine to integrate with the European Union, to be part of the European family, and to just have a democratic, strong, economically free country that\'s flourishing". ', 'He says there has been a drive to digitisation that has made it easier to do business in the country: "It stands in stark contrast to what happens in Russia… and that\'s perhaps another reason why the Russian leader just so blatantly hates everything about Ukraine and what Ukraine stands for."', "Mr Malpass is concerned that the war will do long term damage to those changes that Ukraine's economy and people have benefitted from.", 'A desire to stop them unravelling is one reason why the World Bank is in the process of putting together a $350m aid package for Ukraine which is expected to be approved within the next few days.', '"It will help fund the budget of Ukraine," said Mr Malpass. With tax revenues collapsing because of the war it will help pay for things such as government salaries, social welfare and emergency supplies.', 'He is conscious that as well as the risk to the lives of millions of Ukrainian, the war could "be a lasting [economic] setback, where Russia pulls them toward Russia, under the ideas, the goals of an individual leader". ', '"Their per capita income has fallen below China\'s because in part because of economic mismanagement, and because they really have maintained such a centralised system of decision making under Putin for now, ever since 2000."', 'He adds: "The risk is that Ukraine is controlled by that."', 'You can watch David Malpass\' full interview on "Talking Business with Aaron Heslehurst" this weekend on BBC World News at Saturday 23:30 GMT, Sunday 05:30 and 16:30 GMT and Monday at 08:30 GMT']</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>https://www.bbc.com/news/science-environment-60596449</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>['Moon crash: Discarded rocket part to hit Moon in hours, say scientists']</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>['A discarded part of a rocket is hours away from crashing into the Moon, say scientists who first predicted the collision in January. ', 'The three-tonne rocket part, which is hurtling through space at 5,800mph, is expected to hit at 12:25 on Friday.  ', "Astronomers first thought the rocket part had been launched by Elon Musk's SpaceX programme then said it was Chinese, something China denies. ", 'The effects of the impact on the Moon are expected to be minor. ', 'Scientists hope to study the 10-20m-wide crater and the plumes of moon dust created upon impact.', 'The rocket part was first sighted from Earth in March 2015. A Nasa-funded space survey in Arizona spotted it, but quickly lost interest when the object was shown not to be an asteroid.', "The rocket part is what's known as space junk - hardware discarded from missions or satellites without enough fuel or energy to return to Earth. Some pieces are closer to us, just above the Earth, but others, like this booster, are thousands of miles away in high orbit, far from the Earth's atmosphere. ", 'The European Space Agency estimates there are now 36,500 pieces of space junk larger than 10cm.', 'No space programme or university formally tracks deep space junk. Monitoring space is expensive and the risks to humans from high-orbit debris are low.', 'So, it falls to a tiny handful of volunteer astronomers who spend their free time making calculations and estimating orbits. They fire emails and alerts back and forth, asking whoever is in the best location on the planet to spot an object in space.', 'Six weeks after the booster was first seen, Peter Birtwhistle, 63, was watching the skies for asteroids from his garden in Newbury, in the south of England.', 'His telescope picked up a tiny dot of light tracking across the sky. Calculations suggested it was part of a rocket, he told BBC News. ', 'Space junk drops in and out of view, often unpredictably. For seven years, he barely saw the rocket part - until in January, it re-appeared.', '"I grabbed some images when it passed close to Earth," he explained.', 'He sent his pictures to astronomer and data scientist Bill Gray, on the east coast of the United States. He is the expert who went on to identify it as a SpaceX booster heading for the Moon.', "News that a discarded part of one of billionaire Elon Musk's space missions was going to strike the Moon made global headlines. ", 'But tracking space junk is often "detective work," Mr Gray explains. The rocket insignia cannot be seen - astronomers have to piece together its identity by tracking its route backwards through space. They then match its orbit to dates and locations of rocket launches and trajectories. ', "But some space missions, including China's, don't publicise their routes.", '"For a Chinese mission, we know the launch date because they are televised. So I take a guess that it\'s going to get to the Moon - usually in four or five days. Then I compute an approximate orbit," Mr Gray explains.', 'And sometimes he makes mistakes. Weeks after the SpaceX identification, another observer sent Mr Gray new data, revealing that his identification was impossible.', "He ran the numbers again and concluded it was the third stage of a rocket from China's lunar mission Chang'e 5-T1, launched in October 2014.", "China denied this, saying the upper-stage had re-entered the Earth's atmosphere and burned up.", 'Mr Gray is sticking to his prediction. He believes China has mixed up the tracking of two rocket parts. "I\'m 99.9% sure it\'s the China 5-T1," he says.', 'In reality, we will never be sure.', 'Prof of Astronautics Hugh Lewis at Southampton University says the scientific value of tracking deep space junk is limited. But he says it\'s important to "keep an eye on what\'s there", especially as human settlement in spaces becomes more likely.', '"It\'s the mess we\'ve created. Objects that we think are safe can actually return to Earth unexpectedly," he says.', "Wherever it came from, we won't see the last moments of the booster's existence when it smashes into the far side of the Moon. ", 'It could be days or even weeks before it can be confirmed. This will happen when two satellites going around the Moon photograph the crater left on impact.', "And as the booster breaks into thousands of pieces, evidence of its true origins will be lost, too. The best we've got are the estimates made by Bill Gray and the volunteer astronomers watching the skies."]</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>https://www.bbc.com/news/technology-60541942</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>['Millions in Bitcoin pouring into Ukraine from donors']</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>['Cryptocurrency analysts say at least $13.7m (£10.2m) has so far been donated to the Ukrainian war effort through anonymous Bitcoin donations.', 'Researchers at Elliptic, a blockchain analysis company, say the Ukrainian government, NGOs and volunteer groups have raised the money by advertising their Bitcoin wallet addresses online.', 'More than 4,000 donations have been made so far, with one unknown donor gifting Bitcoin worth $3m to an NGO.', 'The median donation is $95.', 'On Saturday afternoon, the official Twitter account of the Ukraine government posted a message: "Stand with the people of Ukraine. Now accepting cryptocurrency donations. Bitcoin, Ethereum and USDT."', 'It posted addresses for two cryptocurrency wallets which collected $5.4m in Bitcoin, Ether and other coins within eight hours.', 'The Ukrainian Digital Ministry says the latest call for donations is to "help Ukraine armed forces", but would not elaborate on how the money would be spent.', 'Elliptic founder Tom Robinson told the BBC: "Whereas some crowdfunding and payments companies have refused to allow donations to be made to groups supporting the Ukrainian military, cryptocurrencies have emerged as a powerful alternative."', 'On Friday, fundraising platform Patreon announced that it had suspended the donation page for "Come Back Alive", a Ukrainian NGO that has been raising money for Ukrainian forces in conflict zones since 2014.', 'Patreon said the page violated the company\'s policies, saying in a statement: "We don\'t allow Patreon to be used for funding weapons or military activity."', 'Cryptocurrency fund raising is becoming an increasingly prominent part of modern conflicts around the world.', 'Scammers appear to be also be taking advantage of the current situation in Ukraine, though, by tricking unsuspecting users.', 'Elliptic says at least one social media post was found to copy a legitimate tweet from an NGO, but with the author swapping the Bitcoin address, presumably for one of their own.']</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>https://www.bbc.com/news/world-europe-60608706</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>['Ukraine conflict: Drone shows extent of damage in Borodyanka']</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Not Available</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>https://www.bbc.com/news/uk-politics-60611683</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>['Ukraine: UK sanctions oligarchs Alisher Usmanov and Igor Shuvalov']</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>["The UK has announced sanctions on two more Russian oligarchs - Alisher Usmanov and Igor Shuvalov following Russia's invasion of Ukraine. ", "Mr Usmanov's company USM previously had sponsorship ties with Arsenal and - until this week - Everton.", "Mr Shuvalov was formerly Russian President Vladimir Putin's deputy prime minister and is currently chairman of the management board of a Russian bank. ", 'The BBC has contacted the two men for their response. ', "Under the UK government's new restrictions, their assets will be frozen and they will be banned from travelling to the UK.", 'British citizens and businesses will not be allowed to deal with them.', 'Boris Johnson said: "For as long as Putin continues his barbaric attack on innocent Ukrainians we will continue to exert every power we have to inflict maximum economic pain on Putin and his war machine."', 'And his Foreign Secretary Liz Truss said: "We won\'t stop here - our aim is to cripple the Russian economy and starve Putin\'s war machine." ', 'The government said the two men had "significant interests in the UK and close links to the Kremlin".', 'Mr Usmanov founded USM Holding company, an investment group that owns iron, steel and copper suppliers and the Megafon telecommunications company.', "The company, in which Mr Usmanov holds a 49% stake, sponsored Everton's training ground and had a naming-rights option for Everton's new stadium, due to open in 2024.", 'However, on Wednesday, Everton suspended the company\'s sponsorship arrangements, saying the club was "shocked and saddened by the appalling events unfolding in Ukraine".', "Mr Usmanov's business partner Farhad Moshiri - the owner and main investor at Everton - has since stepped down from his role as chairman of USM and announced that he had severed all business links with the Russian.", "At the club's FA cup match against Boreham Wood on Thursday evening, Everton's players walked out draped in Ukrainian flags, behind 22-year-old Ukrainian defender Vitaliy Mykolenko who has been made captain on just his fourth appearance for his new club.", "Mr Usmanov's previous ties with Arsenal ended in 2018 when he sold his 30% stake. At the time he was the second largest shareholder in the north London club.", 'In addition to connections with Premier League clubs, the government said Mr Usmanov owned Beechwood House in Highgate, worth an estimated £48m, and the 16th century Sutton Place estate in Surrey.', 'Mr Shuvalov is less well-known in the UK but the Foreign Office said he owned "two luxury apartments in central London worth an estimated £11m".', 'The Foreign Office also said it had established an Oligarch Taskforce to co-ordinate work to sanction further oligarchs. ', 'Earlier this week, the EU froze the assets of the Mr Usmanov, saying he was "a pro-Kremlin oligarch with particularly close ties to Russian president Vladimir Putin".', 'At the time, Mr Usmanov issued a statement calling the EU\'s decision "unfair" and adding that he would "use all legal means to protect my honour and reputation".', 'Mr Shuvalov, the other man to be sanctioned, has worked in the Russian government as first deputy minister and government chief of staff, as well as acting as an aide to President Putin. ', 'Since 2018 he has been the chairman of the management board of VEB, one of the Russian banks recently sanctioned by the government.', 'On Wednesday, Labour leader Sir Keir Starmer had urged the prime minister to take action against Mr Shuvalov and accused the prime minister of being slow to target other individuals connected with the Putin government. ', 'Government sources have told the BBC it could take weeks to put together sanctions against such people. ', "Labour, and some senior Conservative figures have said the UK should seize oligarchs' UK assets. ", 'Conservative MP Tom Tugendhat, the chairman of the Commons foreign affairs committee, said: "We should be looking immediately to seize those assets linked to those who are profiting from Putin\'s war machine, holding it in trust and returning it to the Russian people as soon as possible."', "Elsewhere, the US has announced fresh sanctions on Russian oligarchs including Mr Usmanov, Mr Shuvalov and Mr Putin's press secretary Dmitry Peskov.", 'Authorities in France and Germany have seized yachts owned by Mr Usmanov.', 'Meanwhile, Justice Secretary Dominic Raab says the government will look at ways to stop lawsuits being used by wealthy individuals to intimidate journalists and organisations covering their wealth and financial interests.', 'The government is expected to set out a number of options to alter the system, including procedural changes in courts and potential legislation. ', 'Mr Raab told the Telegraph: "We will not have people close to Putin coming here to try and bankrupt people who shine a light on his excesses." ']</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>https://www.bbc.com/news/world-africa-60508013</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>["Africa's week in pictures: 18-24 February 2022"]</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>["A selection of the week's best photos from across the continent and beyond:", 'Images subject to copyright.']</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>https://www.bbc.com/news/in-pictures-60536824</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>['In pictures: Kyiv under attack']</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>['Russian forces continue a military assault on neighbouring Ukraine, with fighting on the streets of the capital Kyiv.', 'All pictures subject to copyright.']</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>https://www.bbc.com/news/business-60613613</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>['Ukraine conflict: Government to sell NFTs to fund war against Russia']</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>["Ukraine's government has said it will issue non-fungible tokens (NFTs) to fund its military as they defend the country against the Russian invasion.", 'The announcement by deputy prime minister Mykhailo Fedorov comes in the same week the country raised more than £200m from the sale of war bonds.', 'The bonds are one of a number of ways Ukraine is using to raise funds.', 'The government is also in talks with the International Monetary Fund (IMF) and World Bank over emergency help.', 'In a Tweet, Mr Fedorov said the NFTs will be launched "soon".', 'However, there were no plans to sell fungible tokens, of which cryptocurrencies are a prime example, he added.', 'NFTs are "one-of-a-kind" assets in the digital world that can be bought and sold like any other piece of property, but which have no tangible form of their own.', 'The digital tokens can be thought of as certificates of ownership for virtual or physical assets.', 'The announcement is the latest sign that the Ukrainian government is embracing digital assets as it looks for new ways to raise money to pay for its military.', 'On Tuesday, Ukraine raised 8.1bn hryvnia (£202m; $270m) from an auction of war bonds.', 'Each one-year bond has a nominal value of 1,000 Ukrainian hryvnia and offered an 11% interest rate.', 'The country\'s ministry of finance said: "The proceeds from the bonds will be used to meet the needs of the Armed Forces of Ukraine."', 'Also this week, the World Bank and IMF said they are working on a multi-billion package for Ukraine in the coming months.', 'Meanwhile, millions of dollars have been given to the Ukrainian war effort through anonymous Bitcoin donations, according to cryptocurrency analysts.', 'On Saturday, the official Twitter account of the Ukraine government posted a message: "Stand with the people of Ukraine. Now accepting cryptocurrency donations. Bitcoin, Ethereum and USDT."', 'It posted addresses for two cryptocurrency wallets which collected $5.4m (£4bn) in Bitcoin, Ether and other coins within eight hours.']</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>https://www.bbc.com/news/business-60613855</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>['Ukraine conflict: Asia stocks drop after nuclear plant attack']</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>['Share prices have fallen in Asia after a fire broke out at the Zaporizhzhia nuclear power plant in Ukraine, the largest in Europe.', "Japan's benchmark Nikkei index was 2.5% lower and the Hang Seng in Hong Kong was down by 2.6%.", 'Oil prices rose in Asia morning trade, with Brent crude above $112 a barrel.', 'The fire happened after Russia troops shelled the plant. Some investor concerns were eased after officials said the plant\'s safety was "secured".', "The International Atomic Energy Agency (IAEA) later said that it had spoken to Ukraine's leadership and had been told important equipment at the plant was still working.", 'The shelling has drawn international condemnation, with the US President Joe Biden joining Ukrainian President Volodymyr Zelensky in urging Russia to cease the shelling and allow firefighters to access the site.', "In recent days, Russia's invasion of Ukraine has sent shockwaves through the global financial and energy markets.", 'This week, the cost of Brent crude - the global oil benchmark - jumped above $100 a barrel, rising to more than $119 to the highest since May 2012.', 'The cost of natural gas and coal have also jumped on global markets.', 'Soaring wholesale energy prices have pushed the average cost of petrol and diesel on UK forecourts to record highs.', "It has also been warned that Britain's household energy bills could reach as high as £3,000 a year.", 'Meanwhile, the Russian rouble has hit a record low against the US dollar as countries around the world impose tough sanctions on the country.']</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>https://www.bbc.com/news/science-environment-60525591</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>['Climate change: IPCC report warns of ‘irreversible’ impacts of global warming']</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>['Many of the impacts of global warming are now simply "irreversible" according to the UN\'s latest assessment.', 'But the authors of a new report say that there is still a brief window of time to avoid the very worst.', 'The Intergovernmental Panel on Climate Change says that humans and nature are being pushed beyond their abilities to adapt. ', 'Over 40% of the world\'s population are "highly vulnerable" to climate, the sombre study finds. ', "But there's hope that if the rise in temperatures is kept below 1.5C, it would reduce projected losses.", 'Just four months on from COP26, where world leaders committed themselves to rapid action on climate change, this new UN study shows the scale of their task.', '"Our report clearly indicates that places where people live and work may cease to exist, that ecosystems and species that we\'ve all grown up with and that are central to our cultures and inform our languages may disappear," said Prof Debra Roberts, co-chair of the IPCC.', '"So this is really a key moment. Our report points out very clearly, this is the decade of action, if we are going to turn things around."', "This report from the IPCC is the second of three reviews from the world's foremost body of climate researchers. ", 'Last August, the first instalment highlighted the scale of the effect that humans were having on the climate system. ', 'This new report looks at the causes, impacts and solutions to climate change. It gives the clearest indication to date of how a warmer world is affecting all the living things on Earth.', 'The report is a stark account of the fierce consequences that the world is already experiencing, like growing numbers of people dying from heat.', 'But the authors say that there is still a brief window of time to avoid the very worst.', '"One of the things that I think is really, really clear in the report is that yes, things are bad, but actually, the future depends on us, not the climate," said Dr Helen Adams, a lead author on the report from King\'s College, London.', 'The report shows that extreme weather events linked to climate change like floods and heatwaves are hitting humans and other species much harder than previous assessments indicated.', 'The new study says that these impacts are already going beyond the ability of many people to cope.', 'While everyone is affected, some are being hit much harder. This outcome very much depends on where you live.', 'Between 2010 and 2020, 15 times more people died from floods, droughts and storms in very vulnerable regions including parts of Africa, South Asia and Central and South America, than in other parts of the world.', 'Nature is already seeing dramatic impacts at the current level of warming. ', 'Coral reefs are being bleached and dying from rising temperatures, while many trees are succumbing to drought. ', 'The report highlights the increasing impacts that are expected as the rise in global temperatures, currently around 1.1C, heads to 1.5C.', 'Continued and accelerating sea level rise will increasingly hit coastal settlements pushing them towards "submergence and loss".', 'Under all emissions scenarios, the IPCC expects a billion more people to be at risk from coastal specific climate hazards in the next few decades. ', 'If temperatures rise to between 1.7 and 1.8C above the 1850s level, then the report states that half the human population could be exposed to periods of life-threatening climatic conditions arising from heat and humidity.', 'Commenting on the summary, UN Secretary General Antonio Guterres described it as an "atlas of human suffering". He has no doubt as to where the blame lies. ', '"The facts are undeniable. This abdication of leadership is criminal. The world\'s biggest polluters are guilty of arson of our only home." ', "Diseases will likely spread more quickly in the coming decades, say the study's authors. ", 'There is a particular risk that changing climactic conditions will ease the spread of mosquito-borne dengue fever to billions more by the end of this century. ', 'As well as the physical health impacts, this report, for the first time, states that climate change may be exacerbating mental health issues, including stress and trauma related to extreme weather events and the loss of livelihoods and culture.', 'Some researchers have speculated that going over 1.5C for a short period would be acceptable if temperatures came back down below the level soon afterwards. ', 'This report says there are dangers with this approach.', '"In any overshoot there\'s an increasing risk of hitting tipping points and triggering feedback, in the climate system, like permafrost thawing," said Linda Schneider from the Heinrich Boll Institute, who was an observer at the IPCC discussions. ', '"That would make it a lot more difficult, it could make it impossible to get back below 1.5C." ', "The report is disdainful of technological fixes like deflecting the Sun's rays or removing carbon dioxide from the air, saying they could make things worse. ", 'The summary for policymakers puts much focus on "climate resilient development," which it says helps build the strength to cope with climate change in every society.', '"If our development pathways are ones in which health systems don\'t improve much, education doesn\'t improve much, our economies aren\'t growing very fast and inequality remains a big problem, that\'s a world where a particular amount of climate change is going to have a really big impact," said Prof Brian O\'Neill, an IPCC coordinating lead author from the Pacific Northwest National Laboratory in the US.', '"In contrast, if it\'s a world where we are really making rapid progress on education and health and poverty, if climate change is imposed on that society, the risk will be much lower."', 'Follow Matt on Twitter @mattmcgrathbbc. ']</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>https://www.bbc.com/news/entertainment-arts-60603406</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>["Ukraine: The race to save the country's artistic treasures"]</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>["The video showed a queue snaking around the outside of the Odesa Fine Art Museum. It was Sunday 20 February, and - perhaps for the last time - men, women and children were lining up to look at its treasures (10,000 artworks from the 16th Century onwards, including early paintings by Odesa's own, the abstract art pioneer, Wassily Kandinsky).  ", 'Just four days later, the Russians invaded Ukraine.  ', "Now, like many cities across the country, Odesa, founded by Catherine the Great in the late 1700s, with its perfectly preserved 19th Century architecture and beautiful neo-baroque Opera House, prepares for attack. The museum's acting director, Oleksandra Kovalchuk, fled to Bulgaria for the sake of her one-year-old son. But she's terribly torn.", '"I feel like a traitor," she told me. "I have let down my staff. Of course I feel guilty about it. Odesa Fine Arts Museum has been like a child to me for many years, so it was basically a decision about which child you want to abandon and I decided I\'m obliged to take care of my little son."', 'In the Ukrainian capital, Kyiv, another museum director, Olesia Ostrovska-Liuta, has made a different but equally difficult decision.  She\'s staying put, although she told me "the situation for museums and cultural institutions is no different from hospitals, schools and residential areas, we are all under shelling". ', 'The Mystetskyi Arsenal is one of Europe\'s largest art museums, holding Ukrainian avant-garde and contemporary works.  Protecting them is her mission and she says she will remain in Kyiv "as long as we can guard our institution".', '"When it\'s not possible any longer, then the situation changes," she says.', '"We are facing not just an attack on Ukraine but an attack on our culture," she told me over a Zoom line that stuttered and froze.  She\'s in a war zone. Perhaps it\'s more surprising that it worked at all.', 'Ukraine is home to seven Unesco world heritage sites, including the St Sophia Cathedral in Kyiv with its wonderful golden domes and stunning Byzantine fresco of the Virgin Mary as well as the historic architectural showpiece at the centre of Lviv in the west.  ', 'As Anna Reid, author of Borderland: A Journey Through the History of Ukraine, puts it, bombing Lviv, Odesa, Kyiv or Chernihiv to the north, with its medieval churches, monasteries and peerless collection of icons will be "a cultural loss to Europe on the scale of the destruction of Dresden in World War Two". ', 'When it comes to the country\'s museums, there may be little that staff can do to protect their buildings from Russian assault.  And according to Kovalchuk, a lack of investment means museums "don\'t have a system that would manage fire".  ', '"Whatever museum starts to get flame in it," she says, in almost perfect English, "it will burn down and we will lose many beautiful works of art and heritage and historical artefacts."', 'But there is a race under way to safeguard the treasures inside them and a dread understanding of the high price already being paid. Reports from Ivankiv, north-west of Kyiv, say that the local museum and its art works have been burned down by Russian forces.', 'Inside were 25 paintings by the celebrated Ukrainian folk artist Maria Prymachenko whose bold bright colours and naïve style led Pablo Picasso to deem her an "artistic miracle". ', 'A few weeks before the war, according to the Kyiv-born art critic Konstantin Akinsha, the Ministry of Culture and Information Policy of Ukraine issued guidelines for protection and possible evacuation of museum collections.', 'Mr Akinsha says he was desperate for works to be evacuated immediately. He told me: "Our president is a hero, but that was at a time when he was saying there was nothing to panic about, that there would be no invasion. The authorities prevented the evacuation of artworks because they were afraid it would create panic."', "I've been told of some of the efforts now being made across Ukraine's several thousand museums; of hasty attempts to create a full digital inventory of works, in case they fall into Russian hands, of attempts to move pieces to undisclosed locations and even of museum staff in some cases sleeping barricaded into cellars with the most precious artworks beside them.", 'Nobody wants to speak publicly about what is happening, for fear of alerting either the Russian invaders or looters. But Kovalchuk told me: "In almost every museum, workers are sleeping, staying for days to be close to the art, to be able to make some last minute decisions. I cannot tell you more unfortunately."', 'And when it comes to Odesa Fine Art Museum, she says she "did everything possible, whatever we can, to keep the collection safe".', 'All Ostrovska-Liuta would tell me about the Mystetskyi Arsenal museum is: "When the war started, we had our instructions for how to act in this situation. We did our security plans and we are acting according to them. The museum is shut and guarded."', "With the Russians approaching Kyiv and explosions in the capital in recent hours, it may now be too late to move some of the city's more portable treasures out (many hope that may have already happened secretly in some cases at least). ", 'But there is pressure to safeguard art works held in places that aren\'t yet under fire. Anna Reid says the cities which aren\'t occupied already, like Odesa and Lviv, which have museums with rich collections "should be given as much help as we can to get those collections to a place of safety", whether into air raid shelters or even out of the country.', 'For the buildings, which clearly can\'t be moved, it\'s a different story. "Lviv is like Salzberg," she says. "Odesa is a perfectly preserved 19th Century city, famous for its beautiful trees, its cobbled streets, its seafront. It\'s a jewel and it needs air defences."', 'Kyiv is already facing attack. Ostrovska-Liuta says: "We are all under great danger from the sky. That\'s why there\'s a strong appeal from all Ukrainians to establish a no flight zone over Ukraine."', 'Clearly, the people of Ukraine are the priority; safeguarding them as much as possible is most critical. But this is a nation with a proud history and a recent past that saw cultural figures and works of art destroyed by previous Soviet administrations. The fear is that the Russians want to repeat that."', 'Kovalchuk says: "I believe it would make sense for them to destroy art that shows our Ukrainian heritage, that shows we have different history, that we\'re different, not Russian. For this art, in the Russian Federation, there will be no place. It will cease to exist."']</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>https://www.bbc.com/news/world-us-canada-60532632</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>["Dramatic footage captures freezing labradoodle's river rescue"]</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Not Available</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>https://www.bbc.com/news/in-pictures-60505277</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>['In pictures: Destruction and fear as war hits Ukraine']</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>['Russian forces have launched a military assault on neighbouring Ukraine, crossing its borders and bombing military targets near big cities. ', ' All pictures are subject to copyright.']</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>https://www.bbc.com/news/business-60569979</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>['The bosses helping staff pay their soaring energy bills']</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>['When managing director, Ilona Hitel, heard that UK household energy bills were about to soar higher, she decided to help her staff.', '"I knew some of the team were anxious about the costs ahead, and inflation, and so I said \'you don\'t need to worry\'," explains Ms Hitel, the boss of London-based public relations firm CommsCo.', 'With energy bills due to jump by an average 54% or £693 a year from April, Ms Hitel is giving each of her 12-strong team a permanent £700 annual pay rise. The money will be in addition to their usual annual increase.', '"We\'ve got a responsibility to look after our staff," she says. "It\'s about how we treat our people in the hard times, and they were so pleased. It was a good reaction, they appreciated it."', 'Energy prices are set to jump from April because the energy price cap - the maximum price suppliers in England, Wales and Scotland can charge households - is being raised, in response to much higher wholesale prices.', "Yet, with inflation rising to 5.5% in January, (its highest level for 30 years), it is not just energy prices that are increasing strongly. The cost of food has also soared. And Russia's invasion of Ukraine has led to much higher petrol and diesel prices.", "Given these cost of living pressures, Ms Hitel isn't the only boss who is stepping in to support their staff financially during these troubling times.", "Chris Stringer, chief executive of Birmingham-based That Recruitment Company, sent an email to his 24 employees this month, letting them know that they would be receiving a 5% pay rise - because he didn't want to to see them struggling.", '"The price rises have been on my mind for a while, although the decision to give a pay rise wasn\'t very thought through," he admits. "I just thought that I\'m in a position to that do that, and, you know, 30k (£30,000) now, is not the same as it was three years ago.', '"The energy increase is concerning. Everybody is struggling now. I don\'t think you should work just to pay the bills. Life is hard. Anyway, it\'s only 14 staff not like 250,000."', 'The recruitment consultancy boss jokes that the reaction of his staff "wasn\'t as good as the response on (social media platform) LinkedIn", where one of his employee\'s posted about the increase, and has received about 40,000 likes so far.', '"It\'s not a life-changing sum for our staff, but they\'re pleased I\'ve recognised the cost of living, and given them extra security," he adds.', "Stephen Clayton is another boss who has given his staff a permanent pay rise to cover the cost of their rising energy bills. The chief executive of energy consulting firm RSL Renewables says he didn't want staff to be be worrying about how to heat and light their homes.", '"Some of my staff are young, some mothers with children, one whose monthly energy bill had gone from like £100 to £300," says Mr Clayton. His firm is based in South Shields, Tyne and Wear.', '"I want people to leave the stresses at the door. But you can\'t do that when you have a massive bill to pay, you\'re not going to perform."', 'He describes next month\'s energy price hike as "disgusting", adding: "Normal people will be choosing between eating and heating, and that shouldn\'t be the case."', 'Mr Clayton says his team of 12 were "over the moon" when he told them the news in one-to-one meetings.', 'At Glasgow-based tech firm Firefish Software, employee David Connolly and his colleagues have been given a pay rise of £600 per employee to help cover the increased cost of living.', 'Mr Connolly, 31, says it was a "lovely gesture".', '"It was a really nice surprise, I was shocked but delighted. Rising prices have been a concern of mine over the last few weeks.', '"I\'ve noticed prices increase at the petrol pump and then food shopping. The energy bills increase hasn\'t happened yet for us, but I keep on hearing horror stories so it had been a concern. It\'s good that employers are helping employees who are struggling and need support."', 'New Economy is a new series exploring how businesses, trade, economies and working life are changing fast.', 'When it comes to giving employees the extra income to cover the increase in their energy bills companies need to consider tax.', '"If the idea is to give the employee an extra £600 in their pockets, it could be arranged for this to be paid net via payroll," says Clare Bowen, director at accountants MHA Monahans. ', 'Ms Bowen explains this is where the employer would cover the tax and national insurance due by increasing the gross amount paid, but cautions this could represent a significant sum for someone on a higher rate tax band.', '"For example, if an employer wanted to give an extra £100 into an employee\'s pay packet, £125 would have to be given for tax deducted to still amount to £100. However, for any employee who earns more, within the 40% tax bracket, employers would have to give £170. Not only must caution be exercised, but employers must consider if this is fair."', "She also adds that employers could alternatively look at giving the additional money as a one-off extra payment rather than an increase to general salary, and note that it is a discretionary gift to ensure it doesn't get swept up in annual pay increases and become part of the normal pay.", '"Employers would also need to consider where it was an amount subject to pension contributions," adds Ms Bowen.', "Of course, contributing to employee's energy bills can pay dividends in other ways.", '"It makes employees feel valued and appreciated," says Melanie Folkes-Mayers, managing director at human relations firm Eden Mayers HR Consulting. "What you don\'t want is team members leaving for that additional cost.', '"An extra £50 a month isn\'t a huge amount to keep the team happy and help heat their homes and feel comfortable."']</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>https://www.bbc.com/news/world-asia-india-60519542</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>['Uttar Pradesh: BSP chief Mayawati fighting for her legacy in elections']</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>['The mood outside the Bahujan Samaj Party (BSP) office appeared downbeat compared to the bustling offices of other political parties in Lucknow, the capital of Uttar Pradesh (UP) state where polls are taking place to elect a new government.', 'BSP chief Mayawati is a four-time chief minister and an icon for Dalits - formerly untouchables who are at the bottom of a discriminatory Hindu caste system and, despite legal protections, continue to face harassment and violence. ', 'Mayawati is the most experienced among the contenders for the top job.', 'But her campaign has been subdued and analysts are not giving her party even an outside chance to form a government. This has put a question mark on her future and also on her legacy.', 'Her party members, however, reject such assertions. A BSP worker in Lucknow told me that the media and everybody else was getting it wrong.', "The party's strategy this time was to campaign door-to-door and not rely only on mega rallies, he said.", '"She is the most recognisable Dalit face in the country. She is a symbol of the hopes and aspirations of our community and also for anybody who believes in good administration. People will not ditch us," he added.', 'While in power, she was indeed praised for her administrative skills and a tough stance on crime.', 'But her political fortunes have dwindled steadily after her thumping win in the 2007 assembly elections which came on the back of her famed strategy of "social engineering". ', "She turned the BSP's strategy upside down in 2007. Instead of aligning her party against upper-caste Hindus, whose discrimination of Dalits is widely documented, she brought the two communities together, promising them both good governance and development.", 'But she failed to return to power five years later, which was largely blamed on excesses like building statues of herself with public money and allegations of corruption.', 'Since then, she has been in the political wilderness, losing one election after another. Many of her trusted lieutenants joined other parties in the past decade and her grassroots organisation became weak.', 'VK Rai, a psephologist and a professor of political science at Allahabad University, said most leaders build their parties when they are out of power for long.', 'But Mayawati seemed to have missed that chance and her party appeared to have forgotten its core mission, he added.', 'The BSP was formed by the maverick Dalit leader Kanshi Ram to fight for downtrodden communities. Its mission was to become the electoral voice of the Dalits and the poor across the country.', 'But it could never expand much beyond Uttar Pradesh where Mayawati mostly invested her time and energy.', 'Prof Rai said that was part of the problem because when BSP became weak in Uttar Pradesh, it had nowhere else to go to consolidate and stay in power.', "But that's the main characteristic of most regional parties in India as they usually dominate in one state. Prof Rai, however, says the BSP's mission was to go beyond just one state.", "Mayawati has also been accused of being soft on Prime Minister Narendra Modi's Bharatiya Janata Party (BJP), which is also in power in Uttar Pradesh.", 'The BJP was skilful in attracting Dalits to its fold with its strategy of mixing Hindu nationalism with the promise of uplifting marginalised communities.', 'The more the BSP lost in the state, the more other parties, especially the BJP, gained. ', 'But the BJP itself is facing a tough challenge from its regional rival, the Samajwadi Party (SP), while also fighting anti-incumbency.', 'Analysts, including Prof Ravi Kant Chandan of Lucknow University, say the main contest this time may be between the BJP and the SP, but counting Mayawati out is a mistake.', "Prof Kant argues that some of the BSP's core base will return to the party as it feels that the BJP didn't fulfil its promises to them.", "The BSP seems to be banking on this possibility as it's also trying to woo Brahmins - who sit on top of the caste system - back.", 'And if its strategy is successful, even on a few dozen seats, the BSP may find a way out of the wilderness, especially in case of a hung assembly.', 'Prof Kant said it was possible that both the BJP and the SP fall short of the majority mark of 202 in the 403-strong state legislature.', 'And Mayawati - who has been in a coalition with both parties in the past - could play the role of the "kingmaker".', 'She could even stake a claim for the top job in a scenario where her party is absolutely needed to form a government.', "But if these scenarios don't play out, it will be hard for her and her party to stay relevant in the country's politics.", '"Mayawati is BSP, there is nobody else. If she becomes irrelevant, so will the party," Prof Rai said.', 'That will leave a vacuum and Dalits will look for new alternatives, which could be the existing parties at least in the near future.', 'But in the long run, Prof Rai said, the community would want its own representative - a Dalit leader who is unafraid of championing their cause.', "And that is why these elections are a litmus test for Mayawati because there is too much at stake - her future, her legacy and the BSP's existence.", "She is arguably one of the most accomplished Dalit politicians in independent India and she wouldn't want her legacy to end with this election."]</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>https://www.bbc.com/news/world-europe-60613438</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>['Ukraine: Russian attack on nuclear power plant condemned by world leaders']</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>['World leaders have accused Russia of endangering the safety of an entire continent after its forces shelled a nuclear power station in southern Ukraine.', 'A fire broke out at the Zaporizhzhia nuclear plant - the largest in Europe - after it was attacked by Russia.', 'Authorities say the facility is now safe and radiation levels are normal.', 'But UK Prime Minister Boris Jonson said the "reckless" attack could "directly threaten the safety of all of Europe".', 'US President Joe Biden urged Moscow to stop its military activities around the site, while Canada\'s Prime Minister Justin Trudeau said the "horrific attacks" from Russia "must cease immediately". All three leaders spoke to Ukraine\'s President Zelensky by phone.', 'Mr Zelensky, meanwhile, accused Russia of resorting to "nuclear terror" and wanting to repeat the 1986 Chernobyl disaster. ', '"If there is an explosion, it is the end of everything. The end of Europe," he said.', 'A video feed from the nuclear plant showed blasts lighting up the night sky and sending up plumes of smoke.', "Workers at the plant said the fire - which has since been extinguished - broke out at a training building outside the plant's perimeter, and that only one of the plant's six reactors were operational. ", 'The UN\'s nuclear watchdog, the International Atomic Energy Agency (IAEA), said the fire had not affected the plant\'s "essential" equipment and there was no increase in radiation levels.', 'But the IAEA said it was in "full 24/7 response mode" due to the "serious situation" at the power station.', 'Ukrainian emergency services said initially they were blocked from getting to the scene of the blaze, prompting President Biden to publicly call on Russia to allow firefighters into the site.', 'Boris Johnson said he would seek an emergency meeting of the UN Security Council on Friday over the attack.', 'Experts said attacking a nuclear plant was unprecedented, and the situation was still very dangerous.', 'Dr Graham Allison, a nuclear security expert at Harvard University, said the "worst-case" would be if a fire at the plant caused a meltdown and prompted a release of radioactivity that contaminated the surrounding area for years.', 'But he also said it was more likely Russian forces were trying to "close down the supply of electricity to the surrounding area", rather than attack the plant.', 'The plant, located around 550km (342 miles) south-east of the capital Kyiv, generates almost a quarter of all electricity in Ukraine.', 'Russian forces have already seized control of the Chernobyl nuclear plant, the site of the worst nuclear disaster in history.', 'News of the latest incident at Zaporizhzhia caused share prices in Asia to fall sharply.', 'In other developments:', 'More than one million people have fled Ukraine since the invasion began last week.', 'Despite punishing international sanctions, Russia\'s President Vladimir Putin said his offensive was going "strictly according to schedule, according to plan". ', 'He has put his nuclear forces on high alert because of "aggressive statements" by the West.', 'Western ministers will hold crisis talks in Brussels on Friday as they seek to show their support for Ukraine.', 'UK Foreign Secretary Liz Truss called it "one of the biggest days of diplomacy" with allies prepared to "tighten the vice around Putin\'s war machine" by targeting the Russian economy with more sanctions.', 'Have you been affected by the issues raised in this story? Please share your experiences if it is safe to do so. Email haveyoursay@bbc.co.uk.', 'Please include a contact number if you are willing to speak to a BBC journalist. You can also get in touch in the following ways:']</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>https://www.bbc.com/news/uk-england-nottinghamshire-60575504</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>['Rufford Lane ford: Millions watch cars get stuck in deep water']</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Not Available</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>https://www.bbc.com/news/world-us-canada-60607782</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>['Young girl returned after kidnapping by man she met on Roblox']</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>["A 13-year-old girl has been safely returned home after she was allegedly kidnapped by a man she met through the children's gaming app Roblox.  ", 'Police said they arrested Howard Graham after discovering he had convinced the young girl to leave her home in Kansas - after just two days of speaking on the app. ', 'The 33-year-old has been charged with sex trafficking, kidnapping and rape.', 'Roblox allows players to game with friends or strangers.', "With around 150 million monthly users, it is one of the most popular children's games in the world. ", 'Mr Graham and the young girl first met on the app on 18 February, Police Cpt John Ivey said at a news conference. ', 'Two days later, investigators said the teenager snuck out of her house in the city of Topeka and was allegedly picked up by Mr Graham who drove her to his home in Clayton County, Georgia - some 900 miles away.  ', 'Over the next few days, police said they believed she was sexually assaulted "many times".', 'Police said eventually the girl sent a message to her mother through Roblox, giving the address of a general store where she had been taken.', 'Officers tracked down and arrested Mr Graham at his job on 1 March. ', '"We\'re truly lucky we found this young girl and she was alive," Mr Ivey said.', "Police said they were searching Mr Graham's belongings to determine if he had targeted other children. ", 'Roblox\'s mission, according to its website, "is to bring the world together through play". But the company has faced criticism for the explicit content that sometimes appears on its app. ', 'A BBC investigation published last month found users on Roblox created sexually explicit rooms called "condo games" that allowed for inappropriate activity between children and adults. ', 'Roblox spokesman James Kay said he was "deeply saddened" to hear about the recent case and would co-operate with the investigation.', '"We have stringent safety systems and a team of thousands of moderators who enforce a strict set of community standards on Roblox, including zero tolerance for sexual content of any kind," Mr Kay said, noting parental controls and features that can limit children\'s contacts or turn off the chat function altogether. ', '"Safety on Roblox is at the core of everything we do," he said.']</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>https://www.bbc.com/news/health-60555228</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>['Oxygen stocks running dangerously low in Ukraine']</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>['Vital oxygen supplies to treat patients sick with Covid and other critical illnesses, including war injuries, are running dangerously low in Ukraine.  ', 'The World Health Organization says lorries have been unable to carry supplies from plants to hospitals in the country, including capital Kyiv. ', 'And stocks could run out within the next 24 hours. ', 'The WHO is working with partners to transport urgent shipments through Poland. ', '"The oxygen supply situation is nearing a very dangerous point," WHO director general Tedros Adhanom Ghebreyesus and regional director for Europe Hans Kluge said.', '"Some [hospitals] have already run out. ', '"This puts thousands of lives at risk."', 'An estimated 1,700 patients admitted to hospital in Ukraine because of Covid will probably need oxygen treatment.', 'But it is also needed for a range of other conditions, including childbirth. ', 'The WHO says several manufacturing plants in Ukraine are also facing shortages of zeolite - a crucial, mainly imported chemical product needed to make safe medical oxygen. ', 'Hospital services are also under threat from electricity and power shortages. ']</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>https://www.bbc.com/news/world-60613863</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>["Europe's largest nuclear plant shelled in Ukraine"]</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Not Available</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>https://www.bbc.com/news/world-asia-india-60606648</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>['Ukraine: Is India headed for an oil price shock?']</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>['With Brent crude - the international benchmark for oil prices - surging to $113 a barrel sparked by the war in Ukraine, is India headed for an oil price shock?', 'The price rise, the highest since June 2014, is worrying India no end. ', "Guzzling up to 5.5 million barrels every day, India is the world's third largest consumer of oil, behind US and China. ", 'But India imports 85% of its oil from more than 40 countries. The bulk of supplies come from the Middle East and the US. (India imports only 2% of its supplies from Russia.) Imports include oil which it converts to petroleum products after refining. ', 'India exports petroleum products - accounting for more than 13% of its total exports - to more than 100 countries.', 'Demand for oil is growing at 3-4% every year in the country. In a decade, India could easily end up consuming more than 7 million barrels a day, say experts. Much of the oil goes into keeping some 300 million vehicles on the road and for different industries such as petrochemicals and plastics. India uses diesel to produce some 80,000 mega-watts of electricity. Diesel generators provide electricity to a lot of private housing. ', "India's tax revenues are also heavily dependent on oil. Oil accounts for more than 50% of federal excise duties - tax collected on goods produced within the country. States depend on oil taxes to shore up their revenues. ", '"We are the hottest market for oil. And there is no other country among large emerging economies which is more vulnerable to high oil prices than India," Narendra Taneja, a leading energy expert, said.', "The health of India's economy is inextricably connected to oil. ", 'The government\'s latest Economic Survey has projected 8-8.5% growth on the assumption that oil prices would remain between $70-$75 a barrel. "Oil prices at anything more than $68-$70 a barrel is bad news for our economy," Mr Taneja said.', "For one, it widens India's current account deficit when the value of imports of goods, services and investment income exceeds exports. ", 'Second, it puts pressure on prices at a time when inflation has already climbed to above 6%.  ', "High oil prices also hurt growth and slow down the economy as people end up spending more money on energy and spend less on other things. And when growth sputters, the government's fiscal calculations can go completely awry.", "The pandemic battered Asia's third-largest economy, which was already in the throes of a prolonged slowdown. It is still struggling: growth slowed down to 5.4% in October-December 2021. Joblessness is rife. A further slowdown triggered by an oil price shock will leave the government with less money to spend on a planned massive infrastructure push to spur growth and welfare benefits and subsidies.", '"At the end of the day, high oil prices end up shrinking the government\'s resources", said Dharmakirti Joshi, chief economist at Crisil, a ratings and analytics firm.', "Many believe that India's ample $633bn (£473bn) foreign exchange reserves provide a good cushion to weather an oil price shock. Also, oil-producing countries could ramp up production to bring prices down and offer relief. ", 'Experts believe the rise in oil prices over fears of supply disruptions from the war in Ukraine shows that India needs to decentralise its energy policy by letting states come up with their own initiatives - seaboard states like Andhra Pradesh, Tamil Nadu and West Bengal could harness the plentiful wind energy, for example - and push "every single source of energy" that is available. ', 'Per-capita consumption of energy in India is still among the lowest in the world. "The war in Ukraine is a major wake-up call for us to plan our energy security better," Mr Taneja said.', 'The last time oil prices surged past $100 in 2014, India battled high inflation, the current account deficit shot through the roof and growth slowed. ', '"How long this war will continue and how high the prices will rise to we don\'t know. There\'s so much uncertainty. It is like driving in the fog. You don\'t really know what lies ahead," Mr Joshi said.']</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>https://www.bbc.com/news/in-pictures-60601185</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>['In pictures: Russia intensifies attacks on Ukraine']</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>['Russian forces have seized control of the key port of Kherson in southern Ukraine, the first major city to be taken since Moscow invaded on 24 February.', 'All images subject to copyright.']</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>https://www.bbc.com/news/uk-england-london-60471272</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>["'I've been taking a photo every day at 12.34pm for 10 years'"]</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Not Available</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>https://www.bbc.com/news/business-60523038</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>['CEO Secrets: Mikaela Jade of Indigital shares her advice']</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Not Available</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>https://www.bbc.com/news/health-60601750</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>['Another life-saving Covid drug identified']</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>['UK experts say they have found another life-saving drug that can help people ill with Covid. ', 'The anti-inflammatory baricitinib is normally used to treat rheumatoid arthritis. ', 'Trials suggest it can cut death risk by about a fifth in patients needing hospital care for severe Covid. ', 'It could be used with other Covid treatments, such as the cheap steroid dexamethasone, to save even more lives, researchers say.', 'That might halve deaths.', 'The NHS may soon recommend baricitinib based on these new results. A 10-day course of the pills costs around £250, although the NHS may be able to negotiate a discount. ', 'Health and Social Care Secretary Sajid Javid said: "A big thank you to all of the researchers, doctors and volunteers involved in this work.', '"Our medical and scientific experts will now consider the results before any decisions are made on next steps."', 'Although vaccines have been doing a great job at cutting infections and protecting lives, some people will still catch and become very sick with Covid.', 'And the Recovery trial has been testing existing medications on Covid patients to see if they help.  ', 'It has already identified dexamethasone, tocilizumab and a treatment called Ronapreve - discoveries that have changed clinical practice worldwide and been credited with saving hundreds of thousands, if not millions, of lives, experts say.', 'And now it appears some very ill Covid patients, including those on ventilators, fare much better if they receive baricitinib.', 'The benefit was on top of other proven life-saving Covid drugs.', 'One of the patients enrolled on the trial, Mark Rivvers, 51, from Cambridge, said: "I was in hospital for almost a month, mostly in an intensive-care unit. ', '"Everything in my body seemed to be fighting against everything else.', '"I was on almost constant respiratory support, I developed sepsis, and I had pneumonia all across my lungs.', '"But I saw it as my duty to take part in the Recovery trial because I knew that no matter what happened to me, I was doing something positive to help others. ', '"I\'m really pleased about the result with baricitinib and hope that it can now be used to benefit many others."', 'There are now many drugs that can help fight Covid:', 'Which treatments work best against Covid?', 'Recovery trial joint chief investigator Sir Martin Landray, professor of medicine and epidemiology, at Oxford Population Health, said: "It is now well established that in people admitted to hospital because of severe Covid, an overactive immune response is a key driver of lung damage. ', '"Today\'s results not only show that treatment with baricitinib improves the chances of survival for patients with severe Covid-19 but that this benefit is additional to that from other treatments that dampen down the overactive immune response, such as dexamethasone and tocilizumab. ', '"This opens up the possibility of using combinations of anti-inflammatory drugs to further drive down the risk of death for some of the sickest patients."', 'The Recovery Trial has been a pandemic success story. ', 'With more than 47,000 participants across the UK, it is the biggest study of Covid treatments in the world.', 'The treatments it has discovered have saved countless lives.', 'But its latest drug, baricitinib, was uncovered with the help of some DNA detective work.', 'The Genomicc study has been trying to understand why some people with Covid have no symptoms while others become extremely ill.  ', "It has been looking for answers in people's genes, comparing intensive-care patients' genomes with healthy people's DNA.", 'And it has pinpointed some key genetic differences - including one in the TYK2 gene.', 'If this gene is faulty, the immune response can go into overdrive. ', "And this genetic discovery led to baricitinib being added to the Recovery trial's list of treatments.", 'Genetics is crucial for understanding how Covid-19 affects the body - and combining this DNA knowhow with a major clinical trial has provided another weapon in the fight against coronavirus.']</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>https://www.bbc.com/news/world-asia-india-60599841</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>['Uttar Pradesh: The right-wing brigade in pursuit of a Hindu state']</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Not Available</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>https://www.bbc.com/news/world-europe-60611188</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>["Germans welcome Ukrainian refugees by train: 'It could have been us'"]</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>["In Berlin's central railway station the trains arriving from the east come carrying thousands of refugees every day - men, women and children fleeing Vladimir Putin's war in Ukraine.", "Those who want to head onwards get free train tickets to anywhere in Europe. Those who don't, or don't know where they should go, get ushered down to a cavernous hall.", 'What they find is a huge operation to welcome them. Food and drink is handed out along with sim cards for phones, and there medical teams, translators, volunteers and organisers to help.', 'And there\'s a crowd, hundreds strong, of German families standing there too, offering places in their homes to the refugees. They hold up homemade signs: "Can host two people! Short or long-term," says one. "Big room. One-three people. Children welcome too! For as long as you want," says another. ', 'There\'s a round of applause as a man with a megaphone asks if anyone can take 13 people - and someone steps forward. A mother is here with her daughter, who can\'t be more than 12 years old, and holding a sign saying: "One mama, two kids, four-six weeks." Next to her is Margot Baldauf, who is in her 70s, with a blue and yellow board offering: "One room for mother and child."', '"I am more or less a child of a refugee," Margot tells me, explaining that her mother - who is still alive and now 97 - had to flee Hitler\'s Nazis to find sanctuary. "So I feel obliged to do something for refugees. It\'s not Hitler this time, but for me it somehow feels like what Putin does is what Hitler did before."', 'Despite the numbers of refugees arriving, it seems there are more than enough German families to take them in.', "In a suburb of Berlin, Matina Wardakas and her husband Timmo Kohlery have opened up their home. They have two teenage daughters of their own, and they've just taken in four Ukrainians.", "There's Anastasiia, along with her four-year-old son Artemii and her parents-in-law Victoria and Vladimir.", "Anastasiia's husband Dimitrii was barred from exiting Ukraine. No men of fighting age can leave the country. It's something she can't explain to her four-year-old son.", '"He keeps asking every time about his dad," she says, trembling. "Where is his dad, and when he can he see him? I don\'t know. I hope soon," Anastasiia says, wiping tears away. ', '"And my dad, I hope I see him soon too," she adds. Her father is trying to make his way across Ukraine to escape to Germany as well. ', 'But even here the family can\'t escape the war. Friends in Kharkiv have just sent a message with a video showing damage of Russian bombs to the home they fled a few days ago. "Look, look, our home," they tell me.', "To make space for the arrivals, Matina and her husband Timmo, who run an IT company, have moved into one of their children's rooms. Their 13-year-old twin girls, Juna and Joli, are now sharing a bedroom.", '"When we started reading the news we said, right away, we need to take someone in, to give someone peace, because it could have been us, this is how we feel," Timmo tells me.', "Vladimir Putin's attack on Ukraine has shaken many in Germany who always believed peace was here to stay in Europe.", '"We have lived in peace our whole life," Matina says. "We don\'t know what it is like to live in war, it\'s shocking. Our first thought was we need to help a family so that they can feel safe. We will give them some peace, in this house."', "Nearby four-year-old Artemii is playing happily with a wooden fire truck he's been given. Anastasiia says he thinks it's his birthday because he's had so many gifts.", 'The host family say their guests are welcome to stay as long as they like. As we leave neighbours come bearing more gifts, a basketful of food for the refugees.', "In another neighbourhood of Berlin, we find Tarek Alaows and about a dozen other people loading supplies onto a bus. Tarek is Syrian. He fled the war there six years ago, walking for two months through Europe to reach Germany. Now he's on his way to the Ukrainian border to collect refugees and bring them back.", '"I know what is the meaning of fleeing war - that\'s why I want to help people now," he says.', "So Tarek, a refugee from one crisis, is heading to help those from another. He says the common thread running through the wars in Syria and Ukraine is Vladimir Putin's aggression - and the violence that has been unleashed, uprooting so many lives."]</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>https://www.bbc.com/news/world-60608699</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>['Ros Atkins on...Russian gas and oil']</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Not Available</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>https://www.bbc.com/news/world-us-canada-60607790</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>["Biden imposes sanctions on Russian oligarchs, 'Putin's cronies'"]</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>['The US has announced fresh sanctions on Russian oligarchs - the latest attempt to squeeze President Vladimir Putin as his invasion of Ukraine continues. ', 'The new penalties will target members of the Russian elite, their families and close associates, cutting them off from the US financial system.', '"The goal is to maximise the impact on Putin," US President Joe Biden said.', "Dmitry Peskov, Mr Putin's press secretary, is among those targeted in the latest blockade.", 'Mr Peskov, 54, is already sanctioned by the European Union, and now joins a list of eight oligarchs and nearly two dozen of their family members and associates whose assets in the US will be frozen, and have their American properties blocked from use. ', 'Another 19 oligarchs - including Putin ally Alisher Burhanovich - and 47 of their family members will face US visa restrictions. ', '"These individuals have enriched themselves at the expense of the Russian people," the White House said on Thursday. "We will continue to work with our allies and partners to hold accountable the Russian oligarchs and corrupt leaders who are profiting from this violent regime." ', 'Earlier this week, Mr Biden had promised to go after Russian oligarchs who have "bilked [stolen] billions of dollars off this violent regime" when speaking of the Ukraine crisis at his State of the Union address.', 'On Thursday, Mr Biden said the existing sanctions carried out with Western allies, such as blocking Moscow from the Swift international payments system and restrictions against the Russian central bank, were already having a "profound" impact. ', '"Our interest is maintaining the strongest unified economic impact campaign on Putin in all history and I think we\'re well on the way to doing that," he said.', 'The UK also announced further sanctions against two Russian oligarchs on Thursday. ']</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>https://www.bbc.com/news/world-asia-india-60568499</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>['Pew survey: Do Indians think women make better politicians?']</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>['Most Indians say that "women and men make equally good political leaders", and more than one in 10 feel that women generally make better political leaders than men, according to a new Pew Research Center survey of nearly 30,000 adults throughout India.', 'Only a quarter of Indian adults believe that men make better political leaders. ', 'Does this finding reflect a strong demand for female leaders? Indian women have been ministers, president and prime minister - Indira Gandhi was only the second woman to head a state in the 20th Century. Some 14% of MPs in the current parliament are women, up from 5% in the first election in 1952. ', 'Yet, political participation is poor. Only 8% of the more than 50,000 candidates in federal and state elections are women, according to a 2019 report by the Association for Democratic Reforms, a research group. India ranks 144 among 193 countries in a global ranking of women in national parliaments. A bill to reserve a third of all seats in the national parliament and state legislatures for women has been hanging fire since 1996.', 'Researchers like Alice Evans, a social scientist at King\'s College London, are sceptical about the latest findings. "We should not necessarily see this as a strong demand for female leaders. There is plethora of evidence pointing to discrimination against women in India," Dr Evans, who is researching a book on gender equality, told me.', 'A women\'s electoral victory in India has no "demonstration effect", said Dr Evans. Other parties are no more likely to field women candidates and women in nearby constituencies are no more likely to stand for office.', '"Restriction of mobility has meant that Indian women struggle to be electorally competitive - they have little opportunity to congregate with peers, amass knowledge of the wider world, forge alliances with unknown men, and collect campaign funds," she said. ', 'Many of India\'s women leaders, say researchers, tend to be privileged - wealthy, upper caste or members of family dynasties. "For ordinary women, politics is out of reach," said Dr Evans.', 'Separate research in OECD countries has shown that representation of women in politics is higher in countries with the proportional representation system, where the distribution of seats hews closely to the proportion of total ballots cast for each party. ', 'One reason, researchers suggest, is that people vote for the party rather than individuals, and politicians - including women - can take career breaks and do not need strong and sustained networks with local people and businesses to win. ', 'But in countries like India and the UK with a first past the post (FPTP) electoral system where the candidate with the highest number of votes in a constituency is declared the winner, representation of women in politics could be stymied. Politicians must establish personal credibility and forge long-term links with constituents. Interruptions in career can be costly. ', 'However, in domestic settings, Indians tend to say men should have more prominent roles than women, according to the Pew Survey.  ', 'About nine in every 10 Indians agree with the notion that a wife must always obey her husband, including two-thirds who completely agree with this sentiment. Indian women are also only slightly less likely than Indian men to say they completely agree that wives should always obey their husbands. ', 'That\'s not entirely surprising. India remains predominantly rural, and many women continue to be sequestered with very few friends. This limits their opportunities to mingle and critique inequalities. "Men enforce their authority and women endure it," said Dr Evans.', 'The Pew survey also found that many Indians express egalitarian views toward some gender roles in the home: 62% of adults say both men and women should be responsible for taking care of children. ', 'But traditional gender norms still hold sway among large segments of the population: roughly a third of adults feel that child care should be handled primarily by women.', 'Similarly, a slim majority (54%) says that both men and women in families should be responsible for earning money, but many Indians (43%) see this as mainly the obligation of men. And most Indian adults say that when jobs are in short supply, men should have greater rights to employment than women.', 'The perception of the male breadwinner is both a consequence and cause of low female employment, creating a chicken-and-egg situation, says Dr Evans. ', 'She believes Indian families face what she says is an "honour-income trade off": female employment rises if the woman earns well enough to outweigh the loss of family honour. Female graduates are pursuing careers in IT, engineering, telecoms, finance and hospitality. "But job creation remains low in India. Job queues are very long, and women are at the back," said Dr Evans. ', 'A worrying finding of the survey is that many Indians see sex-selective abortion, despite the illegality of the practice, as acceptable in at least some circumstances. ', 'Four in 10 Indians say it is either "completely acceptable" or "somewhat acceptable" to "get a check-up using modern methods - antenatal sex screening - to balance the number of girls and boys in the family", a euphemism to connote sex-selective abortion. ', 'Differences by religion on this question are modest: roughly four in 10 - Hindus (40%), Muslims (37%), Christians (43% ), Sikhs (38%) and Jains (40%) - say this is acceptable.  At least one in five people in nearly every state say sex-selective abortion is completely acceptable.', 'This, believes Dr Evans, is also linked to low female employment as parents continue to want at least one son to provide for them in old age. If there were more jobs for women, if daughters could get decent jobs and provide for their parents, then a preference for sons would probably diminish as it has in South Korea and parts of China, she said. ', 'So what do the findings tell us about gender equality in India? ', 'Indian adults are roughly in line with the global median in their support for equal rights for women, according to Jonathan Evans, the lead researcher of the survey. But only one of the 61 countries surveyed by Pew - Tunisia - has a higher share than India who agree completely with the idea that men should have greater rights to a job than women when jobs are scarce. ', "Yes, more Indian women are getting educated, and women's movements have secured laws on dowries, divorce, domestic violence and inheritance. Women have publicly challenged traditional norms by lighting funeral pyres of family members.", '"But the women\'s capacity to claim these rights and challenge patriarchal guardians is constrained by social seclusion and economic insecurity. For women to claim their rights they first need to come out of their homes. That requires more jobs-oriented growth and safer public places," said Alice Evans.']</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>https://www.bbc.com/news/world-asia-india-60614274</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>["'I am Mr McAdams': TV anchor Rahul Shivshankar yells at wrong man on Ukraine live"]</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>['An Indian news anchor has inspired jokes and memes after yelling at the wrong guest while debating the Ukraine crisis.', 'Rahul Shivshankar berated a Ukrainian journalist for almost two minutes, thinking he was addressing Daniel McAdams, a US foreign policy commentator.', 'He only realised his mistake when Mr McAdams - the other guest - spoke up.', 'The exchange went viral, making "McAdams" a top Twitter trend in India.', "Indian viewers are used to news anchors shouting down their panellists and going on rants during their shows. Many of these anchors, including Mr Shivshankar, the editor-in-chief of popular English news channel Times Now, are accused of being biased towards India's governing party, led by Prime Minister Narendra Modi.", 'In this instance, Mr Shivshankar was speaking on his show India Upfront to Mr McAdams, executive director of the Ron Paul Institute, and Bohdan Nahaylo, chief editor of Kyiv Post.', 'But the names and titles of the two men were wrongly placed on air, so Mr Nahaylo was identified as Mr McAdams and vice versa.', 'The viral clip began with Mr Shivshankar asking "Daniel McAdams" to "just take a bit of a chill pill".', "Mr Nahaylo then responds that he doesn't want to relax as his country is at war. ", 'Mr Shivshankar proceeds to ask "Mr McAdams" to "get off the fence" and send US troops to Ukraine if he is so concerned about the country.', 'He goes on to rant about "colonial agendas" and the Afghanistan war, interspersing "Mr McAdams" into every other sentence.', 'The real Mr McAdams, in the meantime, is seen trying to make himself heard above the cacophony.', '"I\'m not talking!" he finally manages to burst out. "It\'s the other guy who\'s talking!"', 'But Mr Shivshankar, who thought he was now talking to his Ukrainian guest, responded that "Mr McAdams" had "gone completely ballistic" and should "go fight alongside Ukrainians if he felt so strongly about the war".', '"Dear host, I haven\'t said a word yet. I don\'t know why you\'re yelling at me," the real Mr McAdams persists.', '"I am not yelling at you, I am talking about Mr McAdams," an oblivious Mr Shivshankar responds.', '"I AM Mr McAdams! I am Mr McAdams and I haven\'t said a word, so stop yelling at me!" says Mr McAdams, generating a quiet "oh" from Mr Shivshankar, who then apologises, saying he got confused.', 'The clip led to a lot of amusement on social media, with many pointing out that it was the kind of moment that could only be produced by the cacophonous Indian TV media.', 'Some also thought it was poetic justice for all the guests who never got to speak on these programmes.', 'Mr McAdams, on his part, appeared to be amused by his rise to online fame in India. The Ron Paul Institute, where he works, tweeted that he had become a "meme sensation" because of the "comedy of errors", and said that he had been asked to appear on the show again.', 'They also shared screenshots of Mr McAdams\' conversation with a Times Now employee, where he called himself "the most famous man in India".']</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>https://www.bbc.com/news/world-africa-60603226</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>['Ukraine: Why so many African and Indian students were in the country']</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>['The Russian invasion of Ukraine has caused a mass exodus of civilians, including thousands of international students from Africa, Asia and the Middle East.', 'Ukraine was home to over 76,000 foreign students, according to government data from 2020. ', 'Nearly a quarter of the students were from Africa, with the largest numbers coming from Nigeria, Morocco and Egypt. ', 'India easily accounts for the highest portion with over 20,000 students.', "The students - studying medicine, engineering and business - are an important part of the country's economy. ", 'But, as Russia launches the biggest European invasion since the Second World War, thousands of them have fled, hundreds are still trapped, and many remain uncertain about the fate of their education.', 'Ukraine has long appealed to foreign students, which can be traced back to the Soviet era, when there was a lot of investment in higher education and a deliberate attempt to attract students from newly independent African countries.', 'Now, Ukrainian universities are seen as a gateway to the European job market, offering affordable course prices, straightforward visa terms and the possibility of permanent residency. ', '"Ukrainian degrees are widely recognised and offer a high standard of education," said Patrick Esugunum, who works for an organisation that assists West African students wanting to study in Ukraine.', '"A lot of medical students, in particular, want to go there as they have a good standard for medical facilities," he added.', 'Desmond Chinaza Muokwudo, a Nigerian student who had been based in the city of Dnipro, said he was attracted by the relaxed admission requirements and the cheap cost of living compared to other European cities.', 'He enrolled at the University of Customs and Finance less than three months ago.', 'Many courses are offered in English, but the 30-year-old was undertaking a preliminary Ukrainian language course, before moving on to study international relations. ', '"I was a welder back in Nigeria and I needed an education to accomplish things," he told the BBC from a hostel in Poland after fleeing the conflict.', '"Ukraine was the best option for me."', 'Like Mr Muokwudo, more than 10,000 other African students have managed to flee the conflict and enter neighbouring countries, according to the EU. ', 'There have been reports of foreign students receiving racist treatment at the border, with social media footage showing Ukrainian officials preventing some from crossing.  ', 'Hundreds of students are still believed to be in Ukraine, but it is hard to confirm exact numbers. ', 'One Indian student was killed when he ventured outside to buy some food.', "Some students have told the BBC 1Xtra podcast, If You Don't Know, that their universities refused to move their classes online before the invasion despite repeated requests to do so.", '"The university ignored our pleas and concerns for over one month," said Mary, a Nigerian medical student in her final year, studying in north-eastern Ukraine.', 'She said they had begged the university to allow them to leave but, she added, the students were told they would be fined if they missed their classes, which is standard policy in some Ukrainian universities, so "we didn\'t have a choice".', 'Mary is now stranded in Sumy, near the Russian border, a town that has been subjected to sustained attacks.', '"We didn\'t come to Ukraine for all of this, we came to study and then to go home."', 'She said she and friends were now running out of food and going out to get supplies was not safe because of the constant shelling.', "Mary's university admitted that it did not believe Russia would really attack but denied sanctioning students who decided to leave the country ahead of the invasion. It moved classes online for all students the day before Russian forces entered Ukraine.", 'Christophe, a 22-year-old Cameroonian student, spoke to the BBC from inside a basement in the southern city of Kherson, which has been taken by Russian forces. ', '"We are not going outside because we are scared."', 'He said that he and more than 20 fellow students had spent the past week in a basement with no light, listening to the sound of shelling and gun-shots.', '"It\'s like a dead city, there\'s no-one outside at all."', 'He said he had not seen any sign of African people being harassed during the conflict but he thought to wise to stay inside.', '"It\'s the most safe thing to do right now, we don\'t want to put ourselves in danger."', "The international business student was one year into his bachelor's degree at the Kherson National Technical University when the fighting began. ", '"It\'s difficult to imagine finishing your studies in this sort of environment," he said.', 'In another part of the city, Mamady Doumbouya, a computer science student from Guinea said: "I want to go back to my country, we can\'t study in war."', 'He spoke to the BBC from inside a dark basement surrounded by his classmates from Gabon, Senegal, and Cameroon. ', '"We don\'t have water, we don\'t have light," he said.', 'Ukraine halted all civilian flights when the invasion began on 24 February. ', 'African governments have been scrambling to evacuate their citizens from the country, with some organising flights back home to those who make it across the border. ', 'Ghana was the first African nation to welcome home a group of students on Tuesday. ', 'Speaking to the BBC after landing in the capital, Accra, student Jared Otumfuo Catey said: "A few days ago, I didn\'t know I\'d be here right now. I\'m feeling grateful that I made it through and I\'m safe."', 'Nigeria said it would follow suit and offer flights for those wishing to return via Romania, Hungary, and Poland. ', "South Africa's ambassador to Ukraine told the BBC that he had to leave Ukraine for his own safety but that he had been working hard to secure the exit of South Africans and other foreigners from the country.", "South Africa's ambassadors in both Poland and Hungary have also gone to the borders to help people get through, he said.", 'The Ukrainian government has launched an emergency hotline for Africans and Asians fleeing, according to the foreign minister.', 'In a tweet, Dmytro Kuleba said the authorities were "working intensively" to ensure the safety and passage of African and Asian students.', 'Having invested a lot of money in an education in Ukraine, many students have told the BBC that they were torn between returning home or staying in Europe to complete their degrees.', 'Jessica Orakpo, a sixth-year medical student at the Ternopil National Medical University, was four months away from graduating when the Russian troops invaded. ', '"I\'m stuck now, I can\'t move forward with my education because my school has all my documents," she told the BBC on her way to the Hungarian capital, Budapest. ', '"I don\'t have time to start all over again and I just want my degree. Maybe I can finish my master\'s somewhere else."', 'Foreign students in Ukraine get temporary residence for the duration of their studies, but this does not extend to neighbouring countries.', 'Mr Muokwudo said he would try to finish his course elsewhere in Europe, if all else fails. ', '"I\'m going to stay here and see if the situation improves," he said.', '"Going back to Nigeria is not an option." ']</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>https://www.bbc.com/news/uk-politics-60602512</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>['OneWeb: UK satellite firm suspends use of Russian rockets']</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>['OneWeb, the satellite company part-owned by the UK government, says it is suspending all launches from the Russian-operated Baikonur spaceport.', 'The firm had hoped to send up 36 spacecraft on a Soyuz rocket from the Kazakhstan cosmodrome, but the mission has become embroiled in the fall-out over the invasion of Ukraine.', 'Russia put down demands ahead of the flight that OneWeb could not meet.', "These included a guarantee that armed forces wouldn't use the satellites.", 'Russia also wanted the UK government to divest itself of OneWeb shares, an ultimatum that was firmly rejected by Business Secretary Kwasi Kwarteng.', 'The board of OneWeb, which is headquartered in west London, voted on Thursday morning to suspend all future launches from Baikonur. It had been planning a series of flights from the cosmodrome this year to complete its broadband internet constellation in the sky.', 'The firm will now be working with its French partner Arianespace, which organises Soyuz launches around the world, to find alternative rocket rides.', 'This will be difficult, however. There is a dearth of available vehicles in the class needed by OneWeb. ', 'The company currently has 428 spacecraft in orbit. This is sufficient to provide space-borne internet connections above 50 degrees North (which includes the UK), but close to 650 satellites are required to run a truly global service.', 'After OneWeb\'s announcement, Mr Kwarteng, whose department has a seat on the board, followed up with his own comments, tweeting: "In light of Russia\'s illegal and unprovoked invasion of Ukraine, we are reviewing our participation in all further projects involving Russian collaboration."', 'This would appear to bring an end to the "will it, won\'t" confusion over whether the Soyuz rocket standing on the pad at Baikonur would actually launch on Friday.', 'Mr Rogozin posted a video of pad workers on Wednesday covering up UK, US and Japanese flags', 'When the vehicle, with 36 OneWeb satellites nestled under its nosecone, was rolled out by cosmodrome workers on Wednesday, it seemed that the flight was "go!".', 'But then the head of the Russian space agency Roscosmos, Dimitry Rogozin, started to make demands before he would give the flight approval. These demands, he said, were a response to western sanctions imposed on Russia because of the war in Ukraine.', 'First, he wanted assurances that OneWeb\'s system wouldn\'t be used for military purposes - an impossible ask given that UK and US forces are very keen to use the internet system. Then he wanted the "hostile" UK government to sell its shares in the company - instantly rebuffed by the business secretary. ', "Mr Rogozin ended by posting a video of pad workers covering up UK, US and Japanese flags on the rocket's nosecone.", "Assuming Friday's planned launch is indeed cancelled, there arises the question of what happens to the 36 satellites.", "These remain the property of OneWeb, but it's unclear how they could be returned. There are currently no OneWeb staff in Baikonur to organise a shipment, even if Russia agreed to release the spacecraft.", "The company's manufacturing facility is in Florida where the production line can turn out two satellites a day, so they could quickly be replaced if alternative rockets are sourced.", 'Mr Rogozin has already stated that money received in exchange for Soyuz rockets will not be given back.', '"Due to force majeure circumstances that have arisen as a result of the aggressive policy of the West and the sanctions that are applied against Russia, this money will remain in Russia," he said.']</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>https://www.bbc.com/news/world-us-canada-60559403</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>['CPAC 2022: US conservatives show little interest in Ukraine']</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>['The Conservative Political Action Conference, or Cpac for short, is usually a good way to gauge the mood of grass-roots activists within the Republican Party. ', "If the four-day event that concluded in Orlando, Florida, on Sunday night was any indication, the conservative base of the party is much more interested in the upcoming congressional mid-term elections in November and defeating Democrats than they are about Russia's invasion of Ukraine.", "Some of the top Republican officeholders in the party, like Florida's Governor Ron DeSantis, Texas Senator Ted Cruz and Florida Senator Rick Scott, didn't mention Ukraine at all in their speeches.", 'Donald Trump, who took the stage on Saturday night, offered a quick condemnation of the invasion, but spent more time defending his interactions with Ukrainian President Volodymyr Zelensky that led to his first impeachment and his statements earlier this week calling Russian President Vladimir Putin a "genius". He added that Nato nations and current US leadership were dumb.', 'One of Mr Trump more loyal supporters, Florida Congressman Matt Gaetz, went further, questioning why the US should be "footing the bill for Ukraine" by imposing sanctions that could damage the American economy.', 'Others, like Louisiana Senator John Kennedy, warned of "evil" people who run countries without mentioning Mr Putin by name. And Florida Senator Marco Rubio was particularly careful in the Ukraine portion of his speech.', '"No matter where you stand on this Ukraine-Russia situation, what we should have done beforehand, what we should do now," he said, "the one thing I think everyone can agree upon is that the people of Ukraine are inspiring to the world."', "That's the kind of delicate language you seldom hear at Cpac when the topic is Iran or China.", "The speakers who were the most direct in their condemnations of Russia, in fact, were ones who were commentators or foreign policy experts - like former National Security Adviser Robert O'Brien, radio show host Mark Levin and ex-White House adviser Sebastian Gorka - not current or aspiring politicians.", '"We don\'t pretend when freedom loving people are being crushed and slaughtered by an enemy of the United States, that it doesn\'t matter. It matters," Levin said. "That doesn\'t mean we send American troops willy-nilly into these areas, but it also doesn\'t mean you sit on your hands and pretend nothing\'s going on."', 'All of this suggests a very real divide within the Republican Party over how to handle Russia\'s Ukraine invasion. A straw poll of conference-goers found only 3% viewed Russia as the "greatest threat to America", versus 35% seeing China that way and 61% choosing "Joe Biden\'s incompetence". That same poll showed 59% of attendees wanted Mr Trump to be their party\'s nominee in 2024, far surpassing runner-up DeSantis\'s 28%.', 'Those numbers seemed to reflect the mood of the conference-goers, many of whom said they felt bad about the situation in Ukraine, but they had other concerns that were of higher priority - issues like immigration, inflation, public schools and what they see as government overreach in dealing with the coronavirus pandemic.', '"I really, I really pray for that whole situation that it gets better," says David Gigowski, a 63-year-old business owner from Lakeland, Florida. "I just feel like our own country needs 110% of our attention and our resources, our treasure."', "One of the key ingredients to Mr Trump's political success has been his ability discern the mood of rank and file conservative voters. Republicans who have to face the voters in the months ahead are well aware of this - which may be why, when they speak about Russia and Ukraine at all, they have been choosing their words carefully."]</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>https://www.bbc.com/news/science-environment-60592587</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>['Unite against climate change - Ukraine scientist']</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>['A leading Ukrainian scientist says war is "closing the window of opportunity" for the world to prevent the worst impacts of climate change. ', 'Dr Svitlana Krakovska, who is a member of the Intergovernmental Panel on Climate Change (IPCC), spoke to me on Zoom from her apartment in Kyiv.', '"It\'s amazing how the people of Ukraine united against one enemy," she said. ', '"If we all unite against climate change, we can survive as a civilisation."', "Dr Krakovska was taking part in the final stages of approving the IPPC's latest major assessment on the impacts of climate change when the invasion made it impossible for her to continue her work. ", '"Everything stopped," she said. "I can\'t think about climate change, because I can\'t think about anything other than to try to survive."', 'But, describing herself as part of the country\'s "sofa army" she said she was doing what she could from her home, where she and her family are sheltering, to speak out about the situation in Ukraine. ', 'She stressed that fossil fuels, and Europe\'s reliance on exported oil and gas from Russia, were "funding the war". ', '"The money that\'s invested in fossil fuels, they\'re using against us," she said. "Against freedom. Against humanity."', 'Europe\'s reliance on Russia for energy was cited by President of the European Commission Ursula von der Leyen in a speech on Tuesday, in which she urged a faster transition to renewable energy, saying: "We simply cannot rely so much on a supplier that explicitly threatens us."', 'Dr Krakovska pointed out that scientists had been laying out the evidence for a need to make that transition for decades. "To me it\'s obvious," she said. "If we want to survive, we have to do this."', 'But she pointed out that the window of opportunity to slash emissions - by, in part, switching to those low carbon and renewable energy sources - is closing very rapidly. ', '"This war," she added, "it makes this window of opportunity even more narrow, because now we have to solve this problem first."', 'The veteran climate scientist has travelled the world in her research to understand the impacts of rising global temperatures. In 2021, she received an award from President Volodymyr Zelenskyy for her participation in an Antarctic expedition. ', 'In recent weeks, as Russian troops gathered on the Ukrainian border and as war finally, and suddenly, came to Ukraine, she told me that she had received many calls from colleagues around the world, offering her research posts in their institutions. ', '"I just can\'t do it," she said, choking back tears. "This is my motherland."', 'Follow Victoria on Twitter']</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>https://www.bbc.com/news/world-latin-america-60477700</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>['Colombia decriminalises abortion in first 24 weeks']</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>["Colombia's constitutional court has decriminalised abortions within the first 24 weeks of pregnancy.", 'Under the new rules, no one will be prosecuted for having an abortion within that time frame.', "Since 2006, abortions have been allowed in Colombia in cases of rape, when the woman's life is at risk, or if the pregnancy is not viable.", 'The ruling was welcomed by pro-choice groups, who called it "a historic achievement".', 'But Archbishop José Luis Rueda said the Catholic Church would "continue to proclaim, defend and promote human life from gestation until natural death".', "Pro-choice activists say it is the latest in a series of victories in recent years, including a similar ruling by Mexico's Supreme Court in September and the legalisation of abortion up to the 14th week in Argentina. ", 'This is a massive step for Latin America, a Catholic region and one with deeply conservative values.', 'But the fact that Mexico, Argentina and now Colombia have decriminalised abortion feels like there is momentum growing.', 'The activist movement in the region has been huge these past few years and that has definitely influenced change.', "But the fight is not over yet. Many Latin American countries still severely limit abortion rights, namely Brazil, the region's biggest nation by far.", 'And in several Central American states abortion is banned outright, even in the case of rape and incest. ', 'There are women in prison serving long sentences, many of whom say that they suffered miscarriages. But with so few reproductive rights in some countries, women who need medical help are instead abandoned by the state.', 'The ruling came about as a result of a lawsuit filed by the umbrella group Causa Justa (Just Cause) whose aim is to have abortion removed from the penal code. ', 'Causa Justa argued that because abortions were defined as a crime outside of the three cases allowed under the 2006 ruling, doctors who performed abortions and their patients were often stigmatised.', 'The group estimates that 90% of abortions in Colombia are carried out clandestinely, putting the health and life of women at risk.', "While Monday's decision has not removed abortion from Colombia's penal code entirely, it is seen as a victory in the battle to widen access to the procedure.", 'Following its 5-4 ruling, the court urged the Congress and the government to come up with legislation which will protect the rights of pregnant women, including providing family planning services, eliminating obstacles to abortion care and helping with adoptions.']</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>https://www.bbc.com/news/60571253</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>['Ukraine crisis: How much trade does Russia do with China?']</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>['Russia is under sanctions by its major trading partners such as the EU and the UK after the invasion of Ukraine.  ', 'But could China help out Russia economically?', 'China says it will "continue to have normal trade co-operation" with Russia.', 'But some Russian banks have now been banned from the Swift international payment system. This is used around the world for financial transactions, and is likely to make paying for its exports more difficult.', 'As a result, China has recently had to cut back some of its purchases from Russia because traders have struggled to arrange financing.', 'In recent years, both countries have been making efforts to develop their own alternative payment systems to reduce their reliance on dollar-based systems like Swift.', 'Russia has its System for Transfer of Financial Messages (STFM) while China has the Cross-Border Interbank Payment System (CIPS), and these operate in their own currencies.', 'One study published by the Carnegie Moscow Center argues that these homegrown payment systems are "not an alternative to Swift". ', 'As of 2021, only one Chinese bank had joined STFM, although more Russian banks and global financial institutions have connected to the Chinese system.', 'Currently only about 17% of trade between Russia and China uses the Chinese yuan (up from 3.1% in 2014), according to media reports citing official Russian statistics.', 'And their energy trade is mostly still done in US dollars, although they are increasingly using the yuan.  ', 'Trade between the two has been growing steadily in recent years. ', "It hit a new high of almost $147bn (£110bn) last year - up nearly 36% from the previous year - and accounted for about 18% of Russia's overall trade in 2021.", "During President Putin's visit to Beijing last month, the two countries said they would boost their trade to $250bn by 2024.", "China is currently the single biggest market for Russian exports, such as oil, gas, coal and agricultural products. And it's clear that Russia has started to export much more to China in recent years than it used to.", "However, the EU as a bloc is by far the biggest trading partner with Russia. In 2021, total trade between the two was worth almost twice as much as China's trade with Russia.  ", 'That could now change, according to trade economist Dr Rebecca Harding.', '"It is inevitable that EU-Russia trade diminishes in the light of sanctions. The current crisis has just sharpened a focus within the EU on the need to diversify supply," she said. ', "Russia's trade with US is much smaller.", "Russia's economy relies heavily on exporting oil and gas, and the latest sanctions haven't so far targeted those sectors.", "Last year, Russia was China's second-biggest oil supplier and third-biggest gas supplier, with exports reaching $41.1bn and $4.3bn respectively, according to media reports.", 'Mr Putin recently unveiled new Russian oil and gas deals with China worth an estimated $117.5bn. ', "However, Russia's biggest energy market by far is still the EU, and it supplies 40% of the bloc's gas and about 26% of its oil. ", "And with oil, the latest International Energy Agency (IEA) data show that last year, China accounted for just 20% of Russia's exports, with the majority of its oil going to Europe. ", '"Russian exports of oil and gas [to China] have been increasing at a rate of over 9% annually for the last five years. This is rapid growth but even so, China is half as big as the EU market for Russian oil," says Dr Harding.', "Germany, Russia's main export destination for natural gas, recently announced that it would suspend the new Nord Stream 2 gas pipeline in reaction to Russia's invasion of Ukraine. ", "Supplies via a new pipeline agreed between Russia and China (the Power of Siberia 2) would have only a fifth of the capacity of the Nord Stream 2 pipeline, according to one analysis. Also, it's not clear when the new gas pipeline from Siberia will come on stream.", 'However, over the longer term, China may want to boost imports of Russian gas further to try to reduce its heavy dependence on coal in order to meet targets for cutting greenhouse gases.', "Russia is the world's largest wheat exporter, although China used to restrict some imports from certain areas of Russia because of disease concerns. ", "But China's customs authorities announced the lifting of all restrictions on Russian wheat and barley on the day the assault on Ukraine started.", "China is Russia's largest coal buyer, and the two countries agreed on a new deal worth more than $20bn - just a week earlier.  ", 'Read more from Reality Check', 'Send us your questions']</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>